--- a/testing/data/table/Safer Data Catalog.xlsx
+++ b/testing/data/table/Safer Data Catalog.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hdrinc.sharepoint.com/teams/DL10412519/Task 7 Engineering/Cross-Team/GIS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hdrinc-my.sharepoint.com/personal/tedsmith_hdrinc_com/Documents/Documents/Python/HCFCDQualityControl-ArcGISToolbox/testing/data/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95236029-B00E-40C1-99BC-91418B5F9FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{95236029-B00E-40C1-99BC-91418B5F9FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01C6E370-0B07-485C-86B7-EB08450E2228}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3B495AA5-88CC-44C1-BC14-7AF090EB6A19}"/>
+    <workbookView xWindow="28875" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{3B495AA5-88CC-44C1-BC14-7AF090EB6A19}"/>
   </bookViews>
   <sheets>
-    <sheet name="GIS Data List" sheetId="1" r:id="rId1"/>
-    <sheet name="PM Data" sheetId="9" r:id="rId2"/>
-    <sheet name="NOT USED - Staffing" sheetId="6" r:id="rId3"/>
+    <sheet name="Test Data Catalog" sheetId="11" r:id="rId1"/>
+    <sheet name="GIS Data List" sheetId="1" r:id="rId2"/>
+    <sheet name="PM Data" sheetId="9" r:id="rId3"/>
+    <sheet name="NOT USED - Staffing" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'GIS Data List'!$B$1:$U$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'GIS Data List'!$B$1:$U$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Data Catalog'!$B$1:$U$200</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,6 +43,33 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D35FB60F-5F64-4CF9-B570-E8B92BE6187E}</author>
+    <author>tc={46DC1DC9-9892-4E62-B5B5-07CF7E884D9A}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D35FB60F-5F64-4CF9-B570-E8B92BE6187E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    what does this mean?</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{46DC1DC9-9892-4E62-B5B5-07CF7E884D9A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    what does this mean?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={1F0BBFA7-62D0-4176-B1C4-D30D5F5B3D33}</author>
@@ -67,7 +96,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Woeke, Albertus</author>
@@ -106,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="658">
   <si>
     <t>Type</t>
   </si>
@@ -2020,13 +2049,73 @@
   </si>
   <si>
     <t>Name in Bold indicates Task Lead</t>
+  </si>
+  <si>
+    <t>H&amp;H</t>
+  </si>
+  <si>
+    <t>Bridges</t>
+  </si>
+  <si>
+    <t>Existing Houston Bridges</t>
+  </si>
+  <si>
+    <t>NHD Streams</t>
+  </si>
+  <si>
+    <t>NHD</t>
+  </si>
+  <si>
+    <t>TXDOT</t>
+  </si>
+  <si>
+    <t>Future Roads</t>
+  </si>
+  <si>
+    <t>Streams</t>
+  </si>
+  <si>
+    <t>FutureRoads</t>
+  </si>
+  <si>
+    <t>HH1</t>
+  </si>
+  <si>
+    <t>Parcels</t>
+  </si>
+  <si>
+    <t>DumpSites</t>
+  </si>
+  <si>
+    <t>Harris County</t>
+  </si>
+  <si>
+    <t>074e04e21e5b441ab23a4d541fc0a2f3</t>
+  </si>
+  <si>
+    <t>a38d6b6b3ed24774ad54e90c03f47398</t>
+  </si>
+  <si>
+    <t>174e0fd8a04540c28d7a75e6e495c445</t>
+  </si>
+  <si>
+    <t>1dcaf0d576d34e8698bdde0289e89a69</t>
+  </si>
+  <si>
+    <t>c9dea62917f54d879bf1a03470554a8b</t>
+  </si>
+  <si>
+    <t>Waste Dump Sites</t>
+  </si>
+  <si>
+    <t>Houston Parcels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2458,7 +2547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2639,6 +2728,19 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3564,6 +3666,17 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B1" dT="2025-04-16T17:23:11.15" personId="{77CC4B7E-DAB5-45EB-8933-825726DDF9CC}" id="{D35FB60F-5F64-4CF9-B570-E8B92BE6187E}">
+    <text>what does this mean?</text>
+  </threadedComment>
+  <threadedComment ref="C1" dT="2025-04-16T17:23:06.85" personId="{77CC4B7E-DAB5-45EB-8933-825726DDF9CC}" id="{46DC1DC9-9892-4E62-B5B5-07CF7E884D9A}">
+    <text>what does this mean?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B1" dT="2025-04-16T17:23:11.15" personId="{77CC4B7E-DAB5-45EB-8933-825726DDF9CC}" id="{1F0BBFA7-62D0-4176-B1C4-D30D5F5B3D33}">
     <text>what does this mean?</text>
   </threadedComment>
@@ -3574,38 +3687,4387 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71801D8-1268-42E5-BC35-7562B6A48790}">
+  <dimension ref="A1:CL214"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V6" sqref="V6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="46" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="98.5546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.109375" style="60" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.44140625" style="2" customWidth="1"/>
+    <col min="18" max="20" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:90" s="1" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:90" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="36"/>
+      <c r="C2" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>640</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>639</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="57" t="s">
+        <v>643</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="36"/>
+      <c r="C3" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="57" t="s">
+        <v>642</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="36"/>
+      <c r="C4" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="57" t="s">
+        <v>643</v>
+      </c>
+      <c r="I4" s="75"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="36"/>
+      <c r="C5" s="63" t="s">
+        <v>638</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="33"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="57" t="s">
+        <v>650</v>
+      </c>
+      <c r="I6" s="75"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="1"/>
+      <c r="BT6" s="1"/>
+      <c r="BU6" s="1"/>
+      <c r="BV6" s="1"/>
+      <c r="BW6" s="1"/>
+      <c r="BX6" s="1"/>
+      <c r="BY6" s="1"/>
+      <c r="BZ6" s="1"/>
+      <c r="CA6" s="1"/>
+      <c r="CB6" s="1"/>
+      <c r="CC6" s="1"/>
+      <c r="CD6" s="1"/>
+      <c r="CE6" s="1"/>
+      <c r="CF6" s="1"/>
+      <c r="CG6" s="1"/>
+      <c r="CH6" s="1"/>
+      <c r="CI6" s="1"/>
+      <c r="CJ6" s="1"/>
+      <c r="CK6" s="1"/>
+      <c r="CL6" s="1"/>
+    </row>
+    <row r="7" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7"/>
+      <c r="C7" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="75"/>
+      <c r="J7" s="57"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7" s="3"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7" s="2"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="54"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="57"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8" s="3"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+    </row>
+    <row r="9" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="57"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9" s="3"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9" s="2"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="1"/>
+      <c r="BU9" s="1"/>
+      <c r="BV9" s="1"/>
+      <c r="BW9" s="1"/>
+      <c r="BX9" s="1"/>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="1"/>
+      <c r="CA9" s="1"/>
+      <c r="CB9" s="1"/>
+      <c r="CC9" s="1"/>
+      <c r="CD9" s="1"/>
+      <c r="CE9" s="1"/>
+      <c r="CF9" s="1"/>
+      <c r="CG9" s="1"/>
+      <c r="CH9" s="1"/>
+      <c r="CI9" s="1"/>
+      <c r="CJ9" s="1"/>
+      <c r="CK9" s="1"/>
+      <c r="CL9" s="1"/>
+    </row>
+    <row r="10" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="57"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10" s="3"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10" s="2"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+    </row>
+    <row r="11" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="36"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="1"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="1"/>
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="1"/>
+      <c r="CF12" s="1"/>
+      <c r="CG12" s="1"/>
+      <c r="CH12" s="1"/>
+      <c r="CI12" s="1"/>
+      <c r="CJ12" s="1"/>
+      <c r="CK12" s="1"/>
+      <c r="CL12" s="1"/>
+    </row>
+    <row r="13" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="36"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="36"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="1"/>
+      <c r="BT15" s="1"/>
+      <c r="BU15" s="1"/>
+      <c r="BV15" s="1"/>
+      <c r="BW15" s="1"/>
+      <c r="BX15" s="1"/>
+      <c r="BY15" s="1"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="1"/>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="1"/>
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="1"/>
+      <c r="CF15" s="1"/>
+      <c r="CG15" s="1"/>
+      <c r="CH15" s="1"/>
+      <c r="CI15" s="1"/>
+      <c r="CJ15" s="1"/>
+      <c r="CK15" s="1"/>
+      <c r="CL15" s="1"/>
+    </row>
+    <row r="16" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="1"/>
+      <c r="BN16" s="1"/>
+      <c r="BO16" s="1"/>
+      <c r="BP16" s="1"/>
+      <c r="BQ16" s="1"/>
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="1"/>
+      <c r="BT16" s="1"/>
+      <c r="BU16" s="1"/>
+      <c r="BV16" s="1"/>
+      <c r="BW16" s="1"/>
+      <c r="BX16" s="1"/>
+      <c r="BY16" s="1"/>
+      <c r="BZ16" s="1"/>
+      <c r="CA16" s="1"/>
+      <c r="CB16" s="1"/>
+      <c r="CC16" s="1"/>
+      <c r="CD16" s="1"/>
+      <c r="CE16" s="1"/>
+      <c r="CF16" s="1"/>
+      <c r="CG16" s="1"/>
+      <c r="CH16" s="1"/>
+      <c r="CI16" s="1"/>
+      <c r="CJ16" s="1"/>
+      <c r="CK16" s="1"/>
+      <c r="CL16" s="1"/>
+    </row>
+    <row r="17" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="1"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="1"/>
+      <c r="BT17" s="1"/>
+      <c r="BU17" s="1"/>
+      <c r="BV17" s="1"/>
+      <c r="BW17" s="1"/>
+      <c r="BX17" s="1"/>
+      <c r="BY17" s="1"/>
+      <c r="BZ17" s="1"/>
+      <c r="CA17" s="1"/>
+      <c r="CB17" s="1"/>
+      <c r="CC17" s="1"/>
+      <c r="CD17" s="1"/>
+      <c r="CE17" s="1"/>
+      <c r="CF17" s="1"/>
+      <c r="CG17" s="1"/>
+      <c r="CH17" s="1"/>
+      <c r="CI17" s="1"/>
+      <c r="CJ17" s="1"/>
+      <c r="CK17" s="1"/>
+      <c r="CL17" s="1"/>
+    </row>
+    <row r="18" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="1"/>
+      <c r="BQ18" s="1"/>
+      <c r="BR18" s="1"/>
+      <c r="BS18" s="1"/>
+      <c r="BT18" s="1"/>
+      <c r="BU18" s="1"/>
+      <c r="BV18" s="1"/>
+      <c r="BW18" s="1"/>
+      <c r="BX18" s="1"/>
+      <c r="BY18" s="1"/>
+      <c r="BZ18" s="1"/>
+      <c r="CA18" s="1"/>
+      <c r="CB18" s="1"/>
+      <c r="CC18" s="1"/>
+      <c r="CD18" s="1"/>
+      <c r="CE18" s="1"/>
+      <c r="CF18" s="1"/>
+      <c r="CG18" s="1"/>
+      <c r="CH18" s="1"/>
+      <c r="CI18" s="1"/>
+      <c r="CJ18" s="1"/>
+      <c r="CK18" s="1"/>
+      <c r="CL18" s="1"/>
+    </row>
+    <row r="19" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+      <c r="BT19" s="1"/>
+      <c r="BU19" s="1"/>
+      <c r="BV19" s="1"/>
+      <c r="BW19" s="1"/>
+      <c r="BX19" s="1"/>
+      <c r="BY19" s="1"/>
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="1"/>
+      <c r="CB19" s="1"/>
+      <c r="CC19" s="1"/>
+      <c r="CD19" s="1"/>
+      <c r="CE19" s="1"/>
+      <c r="CF19" s="1"/>
+      <c r="CG19" s="1"/>
+      <c r="CH19" s="1"/>
+      <c r="CI19" s="1"/>
+      <c r="CJ19" s="1"/>
+      <c r="CK19" s="1"/>
+      <c r="CL19" s="1"/>
+    </row>
+    <row r="20" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1"/>
+      <c r="BN20" s="1"/>
+      <c r="BO20" s="1"/>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="1"/>
+      <c r="BT20" s="1"/>
+      <c r="BU20" s="1"/>
+      <c r="BV20" s="1"/>
+      <c r="BW20" s="1"/>
+      <c r="BX20" s="1"/>
+      <c r="BY20" s="1"/>
+      <c r="BZ20" s="1"/>
+      <c r="CA20" s="1"/>
+      <c r="CB20" s="1"/>
+      <c r="CC20" s="1"/>
+      <c r="CD20" s="1"/>
+      <c r="CE20" s="1"/>
+      <c r="CF20" s="1"/>
+      <c r="CG20" s="1"/>
+      <c r="CH20" s="1"/>
+      <c r="CI20" s="1"/>
+      <c r="CJ20" s="1"/>
+      <c r="CK20" s="1"/>
+      <c r="CL20" s="1"/>
+    </row>
+    <row r="21" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
+      <c r="BT21" s="1"/>
+      <c r="BU21" s="1"/>
+      <c r="BV21" s="1"/>
+      <c r="BW21" s="1"/>
+      <c r="BX21" s="1"/>
+      <c r="BY21" s="1"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="1"/>
+      <c r="CB21" s="1"/>
+      <c r="CC21" s="1"/>
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="1"/>
+      <c r="CF21" s="1"/>
+      <c r="CG21" s="1"/>
+      <c r="CH21" s="1"/>
+      <c r="CI21" s="1"/>
+      <c r="CJ21" s="1"/>
+      <c r="CK21" s="1"/>
+      <c r="CL21" s="1"/>
+    </row>
+    <row r="22" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="1"/>
+      <c r="BM22" s="1"/>
+      <c r="BN22" s="1"/>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
+      <c r="BR22" s="1"/>
+      <c r="BS22" s="1"/>
+      <c r="BT22" s="1"/>
+      <c r="BU22" s="1"/>
+      <c r="BV22" s="1"/>
+      <c r="BW22" s="1"/>
+      <c r="BX22" s="1"/>
+      <c r="BY22" s="1"/>
+      <c r="BZ22" s="1"/>
+      <c r="CA22" s="1"/>
+      <c r="CB22" s="1"/>
+      <c r="CC22" s="1"/>
+      <c r="CD22" s="1"/>
+      <c r="CE22" s="1"/>
+      <c r="CF22" s="1"/>
+      <c r="CG22" s="1"/>
+      <c r="CH22" s="1"/>
+      <c r="CI22" s="1"/>
+      <c r="CJ22" s="1"/>
+      <c r="CK22" s="1"/>
+      <c r="CL22" s="1"/>
+    </row>
+    <row r="23" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="1"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="1"/>
+      <c r="BT23" s="1"/>
+      <c r="BU23" s="1"/>
+      <c r="BV23" s="1"/>
+      <c r="BW23" s="1"/>
+      <c r="BX23" s="1"/>
+      <c r="BY23" s="1"/>
+      <c r="BZ23" s="1"/>
+      <c r="CA23" s="1"/>
+      <c r="CB23" s="1"/>
+      <c r="CC23" s="1"/>
+      <c r="CD23" s="1"/>
+      <c r="CE23" s="1"/>
+      <c r="CF23" s="1"/>
+      <c r="CG23" s="1"/>
+      <c r="CH23" s="1"/>
+      <c r="CI23" s="1"/>
+      <c r="CJ23" s="1"/>
+      <c r="CK23" s="1"/>
+      <c r="CL23" s="1"/>
+    </row>
+    <row r="24" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+      <c r="BT24" s="1"/>
+      <c r="BU24" s="1"/>
+      <c r="BV24" s="1"/>
+      <c r="BW24" s="1"/>
+      <c r="BX24" s="1"/>
+      <c r="BY24" s="1"/>
+      <c r="BZ24" s="1"/>
+      <c r="CA24" s="1"/>
+      <c r="CB24" s="1"/>
+      <c r="CC24" s="1"/>
+      <c r="CD24" s="1"/>
+      <c r="CE24" s="1"/>
+      <c r="CF24" s="1"/>
+      <c r="CG24" s="1"/>
+      <c r="CH24" s="1"/>
+      <c r="CI24" s="1"/>
+      <c r="CJ24" s="1"/>
+      <c r="CK24" s="1"/>
+      <c r="CL24" s="1"/>
+    </row>
+    <row r="25" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="78"/>
+      <c r="O25"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="1"/>
+      <c r="BT25" s="1"/>
+      <c r="BU25" s="1"/>
+      <c r="BV25" s="1"/>
+      <c r="BW25" s="1"/>
+      <c r="BX25" s="1"/>
+      <c r="BY25" s="1"/>
+      <c r="BZ25" s="1"/>
+      <c r="CA25" s="1"/>
+      <c r="CB25" s="1"/>
+      <c r="CC25" s="1"/>
+      <c r="CD25" s="1"/>
+      <c r="CE25" s="1"/>
+      <c r="CF25" s="1"/>
+      <c r="CG25" s="1"/>
+      <c r="CH25" s="1"/>
+      <c r="CI25" s="1"/>
+      <c r="CJ25" s="1"/>
+      <c r="CK25" s="1"/>
+      <c r="CL25" s="1"/>
+    </row>
+    <row r="26" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="57"/>
+      <c r="K26"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="3"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26" s="2"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+    </row>
+    <row r="27" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="36"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+    </row>
+    <row r="28" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="57"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28" s="3"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28" s="2"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+    </row>
+    <row r="29" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="36"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+    </row>
+    <row r="30" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="36"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+    </row>
+    <row r="31" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="1"/>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="1"/>
+      <c r="BT31" s="1"/>
+      <c r="BU31" s="1"/>
+      <c r="BV31" s="1"/>
+      <c r="BW31" s="1"/>
+      <c r="BX31" s="1"/>
+      <c r="BY31" s="1"/>
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="1"/>
+      <c r="CB31" s="1"/>
+      <c r="CC31" s="1"/>
+      <c r="CD31" s="1"/>
+      <c r="CE31" s="1"/>
+      <c r="CF31" s="1"/>
+      <c r="CG31" s="1"/>
+      <c r="CH31" s="1"/>
+      <c r="CI31" s="1"/>
+      <c r="CJ31" s="1"/>
+      <c r="CK31" s="1"/>
+      <c r="CL31" s="1"/>
+    </row>
+    <row r="32" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="57"/>
+      <c r="K32"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="3"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32" s="2"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+    </row>
+    <row r="33" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="36"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+    </row>
+    <row r="34" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="36"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+    </row>
+    <row r="35" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="1"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="1"/>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="1"/>
+      <c r="CB35" s="1"/>
+      <c r="CC35" s="1"/>
+      <c r="CD35" s="1"/>
+      <c r="CE35" s="1"/>
+      <c r="CF35" s="1"/>
+      <c r="CG35" s="1"/>
+      <c r="CH35" s="1"/>
+      <c r="CI35" s="1"/>
+      <c r="CJ35" s="1"/>
+      <c r="CK35" s="1"/>
+      <c r="CL35" s="1"/>
+    </row>
+    <row r="36" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="36"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+    </row>
+    <row r="37" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="36"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+    </row>
+    <row r="38" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="57"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38" s="3"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38" s="2"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+    </row>
+    <row r="39" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="57"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39" s="3"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39" s="2"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+    </row>
+    <row r="40" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="36"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="57"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41" s="3"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41" s="2"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+    </row>
+    <row r="42" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="57"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42" s="3"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42" s="2"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+    </row>
+    <row r="43" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="57"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43" s="3"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43" s="2"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="1"/>
+      <c r="BI43" s="1"/>
+      <c r="BJ43" s="1"/>
+      <c r="BK43" s="1"/>
+      <c r="BL43" s="1"/>
+      <c r="BM43" s="1"/>
+      <c r="BN43" s="1"/>
+      <c r="BO43" s="1"/>
+      <c r="BP43" s="1"/>
+      <c r="BQ43" s="1"/>
+      <c r="BR43" s="1"/>
+      <c r="BS43" s="1"/>
+      <c r="BT43" s="1"/>
+      <c r="BU43" s="1"/>
+      <c r="BV43" s="1"/>
+      <c r="BW43" s="1"/>
+      <c r="BX43" s="1"/>
+      <c r="BY43" s="1"/>
+      <c r="BZ43" s="1"/>
+      <c r="CA43" s="1"/>
+      <c r="CB43" s="1"/>
+      <c r="CC43" s="1"/>
+      <c r="CD43" s="1"/>
+      <c r="CE43" s="1"/>
+      <c r="CF43" s="1"/>
+      <c r="CG43" s="1"/>
+      <c r="CH43" s="1"/>
+      <c r="CI43" s="1"/>
+      <c r="CJ43" s="1"/>
+      <c r="CK43" s="1"/>
+      <c r="CL43" s="1"/>
+    </row>
+    <row r="44" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="57"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44" s="3"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44" s="2"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+    </row>
+    <row r="45" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="57"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45" s="3"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45" s="2"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+    </row>
+    <row r="46" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="57"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46" s="3"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46" s="2"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+    </row>
+    <row r="47" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="36"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+    </row>
+    <row r="48" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="57"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48" s="3"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48" s="2"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+    </row>
+    <row r="49" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="57"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49" s="3"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49" s="2"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+    </row>
+    <row r="50" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="57"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50" s="3"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50" s="2"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1"/>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="1"/>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
+      <c r="BD50" s="1"/>
+      <c r="BE50" s="1"/>
+      <c r="BF50" s="1"/>
+      <c r="BG50" s="1"/>
+      <c r="BH50" s="1"/>
+      <c r="BI50" s="1"/>
+      <c r="BJ50" s="1"/>
+      <c r="BK50" s="1"/>
+      <c r="BL50" s="1"/>
+      <c r="BM50" s="1"/>
+      <c r="BN50" s="1"/>
+      <c r="BO50" s="1"/>
+      <c r="BP50" s="1"/>
+      <c r="BQ50" s="1"/>
+      <c r="BR50" s="1"/>
+      <c r="BS50" s="1"/>
+      <c r="BT50" s="1"/>
+      <c r="BU50" s="1"/>
+      <c r="BV50" s="1"/>
+      <c r="BW50" s="1"/>
+      <c r="BX50" s="1"/>
+      <c r="BY50" s="1"/>
+      <c r="BZ50" s="1"/>
+      <c r="CA50" s="1"/>
+      <c r="CB50" s="1"/>
+      <c r="CC50" s="1"/>
+      <c r="CD50" s="1"/>
+      <c r="CE50" s="1"/>
+      <c r="CF50" s="1"/>
+      <c r="CG50" s="1"/>
+      <c r="CH50" s="1"/>
+      <c r="CI50" s="1"/>
+      <c r="CJ50" s="1"/>
+      <c r="CK50" s="1"/>
+      <c r="CL50" s="1"/>
+    </row>
+    <row r="51" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="57"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51" s="3"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51" s="2"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+    </row>
+    <row r="52" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="57"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52" s="3"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52" s="2"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+    </row>
+    <row r="53" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="36"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="3"/>
+      <c r="O53"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+    </row>
+    <row r="54" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="36"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+    </row>
+    <row r="55" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="56"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="57"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55" s="3"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+    </row>
+    <row r="56" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="57"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56" s="3"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56" s="2"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+    </row>
+    <row r="57" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="57"/>
+      <c r="K57"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="3"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57" s="2"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+    </row>
+    <row r="58" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="57"/>
+      <c r="K58"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="3"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58" s="2"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+    </row>
+    <row r="59" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="57"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59" s="3"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59" s="2"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+    </row>
+    <row r="60" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="57"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60" s="3"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60" s="2"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+    </row>
+    <row r="61" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B61"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="57"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61" s="3"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61" s="2"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+    </row>
+    <row r="62" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="57"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62" s="3"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62" s="2"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+    </row>
+    <row r="63" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B63"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="57"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63" s="3"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63" s="2"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+    </row>
+    <row r="64" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B64"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="57"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64" s="3"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64" s="2"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+    </row>
+    <row r="65" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B65"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="57"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65" s="3"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65" s="2"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+    </row>
+    <row r="66" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B66"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="57"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66" s="3"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66" s="2"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+    </row>
+    <row r="67" spans="2:22" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="57"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67" s="3"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67" s="2"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+    </row>
+    <row r="68" spans="2:22" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="61"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="57"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68" s="3"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68" s="2"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+    </row>
+    <row r="69" spans="2:22" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="61"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="57"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69" s="3"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69" s="2"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+    </row>
+    <row r="70" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="61"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="75"/>
+      <c r="J70" s="57"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70" s="3"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70" s="2"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C71" s="63"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="75"/>
+      <c r="J71" s="57"/>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C72" s="63"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="75"/>
+      <c r="J72" s="57"/>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C73" s="33"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="57"/>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C74" s="33"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="57"/>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C75" s="63"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="75"/>
+      <c r="J75" s="57"/>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C76" s="63"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="75"/>
+      <c r="J76" s="57"/>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B77" s="56"/>
+      <c r="C77" s="63"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="57"/>
+      <c r="Q77"/>
+    </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C78" s="63"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="75"/>
+      <c r="J78" s="57"/>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C79" s="63"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="57"/>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B80" s="56"/>
+      <c r="C80" s="63"/>
+      <c r="I80" s="75"/>
+      <c r="J80" s="57"/>
+      <c r="Q80"/>
+    </row>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C81" s="63"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="75"/>
+      <c r="J81" s="57"/>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C82" s="63"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="75"/>
+      <c r="J82" s="57"/>
+    </row>
+    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B83" s="36"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="75"/>
+      <c r="J83" s="57"/>
+      <c r="K83" s="37"/>
+      <c r="L83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+    </row>
+    <row r="84" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C84" s="63"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="75"/>
+      <c r="J84" s="57"/>
+    </row>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C85" s="63"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="75"/>
+      <c r="J85" s="57"/>
+    </row>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C86" s="63"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="75"/>
+      <c r="J86" s="57"/>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C87" s="63"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="75"/>
+      <c r="J87" s="57"/>
+    </row>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C88" s="63"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="75"/>
+      <c r="J88" s="57"/>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C89" s="63"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="75"/>
+      <c r="J89" s="57"/>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C90" s="63"/>
+      <c r="H90" s="57"/>
+      <c r="I90" s="75"/>
+      <c r="J90" s="57"/>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C91" s="63"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="75"/>
+      <c r="J91" s="57"/>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C92" s="63"/>
+      <c r="H92" s="57"/>
+      <c r="I92" s="75"/>
+      <c r="J92" s="57"/>
+    </row>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C93" s="63"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="75"/>
+      <c r="J93" s="57"/>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C94" s="63"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="75"/>
+      <c r="J94" s="57"/>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C95" s="63"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="75"/>
+      <c r="J95" s="57"/>
+    </row>
+    <row r="96" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C96" s="63"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="75"/>
+      <c r="J96" s="57"/>
+    </row>
+    <row r="97" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C97" s="63"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="75"/>
+      <c r="J97" s="57"/>
+    </row>
+    <row r="98" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C98" s="63"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="75"/>
+      <c r="J98" s="57"/>
+    </row>
+    <row r="99" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B99" s="36"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="75"/>
+      <c r="J99" s="57"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+    </row>
+    <row r="100" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C100" s="63"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="75"/>
+      <c r="J100" s="57"/>
+    </row>
+    <row r="101" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C101" s="63"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="75"/>
+      <c r="J101" s="57"/>
+    </row>
+    <row r="102" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C102" s="63"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="75"/>
+      <c r="J102" s="57"/>
+    </row>
+    <row r="103" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C103" s="63"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="75"/>
+      <c r="J103" s="57"/>
+    </row>
+    <row r="104" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B104" s="55"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="47"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="75"/>
+      <c r="J104" s="57"/>
+    </row>
+    <row r="105" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B105" s="36"/>
+      <c r="D105" s="48"/>
+      <c r="E105" s="48"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="75"/>
+      <c r="J105" s="57"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="37"/>
+      <c r="N105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+    </row>
+    <row r="106" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B106" s="55"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="47"/>
+      <c r="E106" s="47"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="75"/>
+      <c r="J106" s="57"/>
+    </row>
+    <row r="107" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B107" s="36"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="35"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="75"/>
+      <c r="J107" s="57"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+    </row>
+    <row r="108" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B108" s="36"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="38"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="75"/>
+      <c r="J108" s="57"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+    </row>
+    <row r="109" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B109" s="36"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="75"/>
+      <c r="J109" s="57"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="37"/>
+      <c r="N109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+    </row>
+    <row r="110" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B110" s="36"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="75"/>
+      <c r="J110" s="57"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+    </row>
+    <row r="111" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B111" s="36"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="38"/>
+      <c r="G111" s="38"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="75"/>
+      <c r="J111" s="57"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+    </row>
+    <row r="112" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C112" s="33"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="75"/>
+      <c r="J112" s="57"/>
+      <c r="L112" s="39"/>
+    </row>
+    <row r="113" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C113" s="33"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="38"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="75"/>
+      <c r="J113" s="57"/>
+      <c r="L113" s="39"/>
+    </row>
+    <row r="114" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B114" s="36"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="38"/>
+      <c r="H114" s="57"/>
+      <c r="I114" s="75"/>
+      <c r="J114" s="57"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+    </row>
+    <row r="115" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C115" s="33"/>
+      <c r="F115" s="38"/>
+      <c r="G115" s="38"/>
+      <c r="H115" s="57"/>
+      <c r="I115" s="75"/>
+      <c r="J115" s="57"/>
+      <c r="L115" s="39"/>
+    </row>
+    <row r="116" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B116" s="36"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="38"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="75"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="37"/>
+      <c r="N116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+    </row>
+    <row r="117" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B117" s="36"/>
+      <c r="D117" s="48"/>
+      <c r="E117" s="48"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="57"/>
+      <c r="I117" s="75"/>
+      <c r="J117" s="57"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="37"/>
+      <c r="N117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+    </row>
+    <row r="118" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B118" s="36"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="72"/>
+      <c r="G118" s="72"/>
+      <c r="H118" s="57"/>
+      <c r="I118" s="75"/>
+      <c r="J118" s="57"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="37"/>
+      <c r="N118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+    </row>
+    <row r="119" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C119" s="33"/>
+      <c r="F119" s="38"/>
+      <c r="G119" s="38"/>
+      <c r="H119" s="57"/>
+      <c r="I119" s="75"/>
+      <c r="J119" s="57"/>
+    </row>
+    <row r="120" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B120" s="36"/>
+      <c r="D120" s="51"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="57"/>
+      <c r="I120" s="75"/>
+      <c r="J120" s="57"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="37"/>
+      <c r="N120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+    </row>
+    <row r="121" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B121" s="36"/>
+      <c r="D121" s="48"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="72"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="75"/>
+      <c r="J121" s="57"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+    </row>
+    <row r="122" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B122" s="36"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="72"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="57"/>
+      <c r="I122" s="75"/>
+      <c r="J122" s="57"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="3"/>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+    </row>
+    <row r="123" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B123" s="36"/>
+      <c r="D123" s="48"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="57"/>
+      <c r="I123" s="75"/>
+      <c r="J123" s="57"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
+      <c r="U123" s="3"/>
+      <c r="V123" s="3"/>
+    </row>
+    <row r="124" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B124" s="36"/>
+      <c r="D124" s="51"/>
+      <c r="E124" s="51"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="57"/>
+      <c r="J124" s="57"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="3"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+    </row>
+    <row r="125" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B125" s="36"/>
+      <c r="D125" s="48"/>
+      <c r="E125" s="48"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="57"/>
+      <c r="I125" s="75"/>
+      <c r="J125" s="57"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="37"/>
+      <c r="N125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+      <c r="U125" s="3"/>
+      <c r="V125" s="3"/>
+    </row>
+    <row r="126" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B126" s="36"/>
+      <c r="D126" s="48"/>
+      <c r="E126" s="48"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="57"/>
+      <c r="I126" s="75"/>
+      <c r="J126" s="57"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="4"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+      <c r="U126" s="3"/>
+      <c r="V126" s="3"/>
+    </row>
+    <row r="127" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B127" s="36"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="38"/>
+      <c r="G127" s="38"/>
+      <c r="H127" s="57"/>
+      <c r="I127" s="75"/>
+      <c r="J127" s="57"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="4"/>
+      <c r="R127" s="3"/>
+      <c r="S127" s="3"/>
+      <c r="T127" s="3"/>
+      <c r="U127" s="3"/>
+      <c r="V127" s="3"/>
+    </row>
+    <row r="128" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B128" s="30"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="57"/>
+      <c r="I128" s="75"/>
+      <c r="J128" s="57"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="37"/>
+      <c r="N128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="4"/>
+      <c r="R128" s="3"/>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3"/>
+      <c r="U128" s="3"/>
+      <c r="V128" s="3"/>
+    </row>
+    <row r="129" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B129" s="36"/>
+      <c r="D129" s="51"/>
+      <c r="E129" s="51"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="57"/>
+      <c r="I129" s="75"/>
+      <c r="J129" s="57"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="3"/>
+      <c r="S129" s="3"/>
+      <c r="T129" s="3"/>
+      <c r="U129" s="3"/>
+      <c r="V129" s="3"/>
+    </row>
+    <row r="130" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C130" s="33"/>
+      <c r="D130" s="47"/>
+      <c r="E130" s="47"/>
+      <c r="G130" s="59"/>
+      <c r="H130" s="57"/>
+      <c r="I130" s="75"/>
+      <c r="J130" s="57"/>
+    </row>
+    <row r="131" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C131" s="33"/>
+      <c r="D131" s="47"/>
+      <c r="E131" s="47"/>
+      <c r="F131" s="59"/>
+      <c r="G131" s="59"/>
+      <c r="H131" s="57"/>
+      <c r="I131" s="76"/>
+      <c r="J131" s="57"/>
+    </row>
+    <row r="132" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B132" s="36"/>
+      <c r="D132" s="51"/>
+      <c r="E132" s="51"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="57"/>
+      <c r="I132" s="75"/>
+      <c r="J132" s="57"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="4"/>
+      <c r="R132" s="3"/>
+      <c r="S132" s="3"/>
+      <c r="T132" s="3"/>
+      <c r="U132" s="3"/>
+      <c r="V132" s="3"/>
+    </row>
+    <row r="133" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B133" s="36"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="57"/>
+      <c r="I133" s="75"/>
+      <c r="J133" s="57"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="37"/>
+      <c r="N133" s="3"/>
+      <c r="P133" s="3"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="3"/>
+      <c r="S133" s="3"/>
+      <c r="T133" s="3"/>
+      <c r="U133" s="3"/>
+      <c r="V133" s="3"/>
+    </row>
+    <row r="134" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="D134" s="47"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="59"/>
+      <c r="G134" s="59"/>
+      <c r="H134" s="57"/>
+      <c r="I134" s="75"/>
+      <c r="J134" s="57"/>
+    </row>
+    <row r="135" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="F135" s="59"/>
+      <c r="G135" s="59"/>
+      <c r="H135" s="70"/>
+      <c r="I135" s="77"/>
+      <c r="J135" s="57"/>
+      <c r="L135" s="37"/>
+    </row>
+    <row r="136" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="F136" s="59"/>
+      <c r="G136" s="59"/>
+      <c r="H136" s="70"/>
+      <c r="I136" s="77"/>
+      <c r="J136" s="57"/>
+      <c r="L136" s="37"/>
+    </row>
+    <row r="137" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B137" s="36"/>
+      <c r="D137" s="48"/>
+      <c r="E137" s="48"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="57"/>
+      <c r="I137" s="75"/>
+      <c r="J137" s="57"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="4"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+      <c r="U137" s="3"/>
+      <c r="V137" s="3"/>
+    </row>
+    <row r="138" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C138" s="33"/>
+      <c r="D138" s="47"/>
+      <c r="E138" s="47"/>
+      <c r="F138" s="59"/>
+      <c r="G138" s="59"/>
+      <c r="H138" s="57"/>
+      <c r="I138" s="77"/>
+      <c r="J138" s="57"/>
+    </row>
+    <row r="139" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B139" s="36"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="38"/>
+      <c r="G139" s="38"/>
+      <c r="H139" s="57"/>
+      <c r="I139" s="75"/>
+      <c r="J139" s="57"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="37"/>
+      <c r="N139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="4"/>
+      <c r="R139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
+      <c r="U139" s="3"/>
+      <c r="V139" s="3"/>
+    </row>
+    <row r="140" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B140" s="36"/>
+      <c r="C140" s="63"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="57"/>
+      <c r="I140" s="75"/>
+      <c r="J140" s="57"/>
+      <c r="K140" s="3"/>
+      <c r="L140" s="37"/>
+      <c r="N140" s="3"/>
+      <c r="P140" s="3"/>
+      <c r="Q140" s="4"/>
+      <c r="R140" s="3"/>
+      <c r="S140" s="3"/>
+      <c r="T140" s="3"/>
+      <c r="U140" s="3"/>
+      <c r="V140" s="3"/>
+    </row>
+    <row r="141" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B141" s="36"/>
+      <c r="C141" s="63"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="57"/>
+      <c r="I141" s="75"/>
+      <c r="J141" s="57"/>
+      <c r="K141" s="3"/>
+      <c r="L141" s="37"/>
+      <c r="N141" s="3"/>
+      <c r="P141" s="3"/>
+      <c r="Q141" s="4"/>
+      <c r="R141" s="3"/>
+      <c r="S141" s="3"/>
+      <c r="T141" s="3"/>
+      <c r="U141" s="3"/>
+      <c r="V141" s="3"/>
+    </row>
+    <row r="142" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B142" s="36"/>
+      <c r="C142" s="63"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="57"/>
+      <c r="I142" s="75"/>
+      <c r="J142" s="57"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="37"/>
+      <c r="N142" s="3"/>
+      <c r="P142" s="3"/>
+      <c r="Q142" s="4"/>
+      <c r="R142" s="3"/>
+      <c r="S142" s="3"/>
+      <c r="T142" s="3"/>
+      <c r="U142" s="3"/>
+      <c r="V142" s="3"/>
+    </row>
+    <row r="143" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B143" s="36"/>
+      <c r="C143" s="63"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="57"/>
+      <c r="I143" s="75"/>
+      <c r="J143" s="57"/>
+      <c r="K143" s="3"/>
+      <c r="L143" s="37"/>
+      <c r="N143" s="3"/>
+      <c r="P143" s="3"/>
+      <c r="Q143" s="4"/>
+      <c r="R143" s="3"/>
+      <c r="S143" s="3"/>
+      <c r="T143" s="3"/>
+      <c r="U143" s="3"/>
+      <c r="V143" s="3"/>
+    </row>
+    <row r="144" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B144" s="36"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="35"/>
+      <c r="G144" s="35"/>
+      <c r="H144" s="57"/>
+      <c r="I144" s="75"/>
+      <c r="J144" s="57"/>
+      <c r="K144" s="3"/>
+      <c r="L144" s="3"/>
+      <c r="N144" s="3"/>
+      <c r="O144" s="3"/>
+      <c r="P144" s="3"/>
+      <c r="Q144" s="4"/>
+      <c r="R144" s="3"/>
+      <c r="S144" s="3"/>
+      <c r="T144" s="3"/>
+      <c r="U144" s="3"/>
+      <c r="V144" s="3"/>
+    </row>
+    <row r="145" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B145" s="36"/>
+      <c r="C145" s="65"/>
+      <c r="D145" s="48"/>
+      <c r="E145" s="48"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="57"/>
+      <c r="I145" s="75"/>
+      <c r="J145" s="57"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="37"/>
+      <c r="N145" s="3"/>
+      <c r="P145" s="3"/>
+      <c r="Q145" s="4"/>
+      <c r="R145" s="3"/>
+      <c r="S145" s="3"/>
+      <c r="T145" s="3"/>
+      <c r="U145" s="3"/>
+      <c r="V145" s="3"/>
+    </row>
+    <row r="146" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B146" s="36"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="57"/>
+      <c r="J146" s="57"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
+      <c r="N146" s="3"/>
+      <c r="P146" s="3"/>
+      <c r="Q146" s="4"/>
+      <c r="R146" s="3"/>
+      <c r="S146" s="3"/>
+      <c r="T146" s="3"/>
+      <c r="U146" s="3"/>
+      <c r="V146" s="3"/>
+    </row>
+    <row r="147" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B147" s="36"/>
+      <c r="C147" s="65"/>
+      <c r="D147" s="48"/>
+      <c r="E147" s="48"/>
+      <c r="F147" s="72"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="57"/>
+      <c r="I147" s="75"/>
+      <c r="J147" s="57"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="37"/>
+      <c r="N147" s="3"/>
+      <c r="P147" s="3"/>
+      <c r="Q147" s="4"/>
+      <c r="R147" s="3"/>
+      <c r="S147" s="3"/>
+      <c r="T147" s="3"/>
+      <c r="U147" s="3"/>
+      <c r="V147" s="3"/>
+    </row>
+    <row r="148" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B148" s="36"/>
+      <c r="C148" s="65"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="57"/>
+      <c r="I148" s="75"/>
+      <c r="J148" s="57"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
+      <c r="N148" s="3"/>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="3"/>
+      <c r="S148" s="3"/>
+      <c r="T148" s="3"/>
+      <c r="U148" s="3"/>
+      <c r="V148" s="3"/>
+    </row>
+    <row r="149" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B149" s="36"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="57"/>
+      <c r="I149" s="75"/>
+      <c r="J149" s="57"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="37"/>
+      <c r="N149" s="3"/>
+      <c r="P149" s="3"/>
+      <c r="Q149" s="4"/>
+      <c r="R149" s="3"/>
+      <c r="S149" s="3"/>
+      <c r="T149" s="3"/>
+      <c r="U149" s="3"/>
+      <c r="V149" s="3"/>
+    </row>
+    <row r="150" spans="2:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C150" s="33"/>
+      <c r="H150" s="57"/>
+      <c r="I150" s="75"/>
+      <c r="J150" s="57"/>
+      <c r="L150" s="39"/>
+    </row>
+    <row r="151" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="J151" s="57"/>
+    </row>
+    <row r="152" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="J152" s="57"/>
+    </row>
+    <row r="153" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="J153" s="57"/>
+    </row>
+    <row r="154" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="J154" s="57"/>
+    </row>
+    <row r="155" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="I155" s="77"/>
+      <c r="J155" s="57"/>
+      <c r="L155" s="39"/>
+    </row>
+    <row r="156" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="I156" s="77"/>
+      <c r="J156" s="57"/>
+      <c r="L156" s="39"/>
+    </row>
+    <row r="157" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="I157" s="77"/>
+      <c r="J157" s="57"/>
+      <c r="L157" s="39"/>
+    </row>
+    <row r="158" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="I158" s="77"/>
+      <c r="J158" s="57"/>
+      <c r="L158" s="39"/>
+    </row>
+    <row r="159" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="I159" s="77"/>
+      <c r="J159" s="57"/>
+      <c r="L159" s="39"/>
+    </row>
+    <row r="160" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="I160" s="77"/>
+      <c r="J160" s="57"/>
+      <c r="L160" s="39"/>
+    </row>
+    <row r="161" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I161" s="77"/>
+      <c r="J161" s="57"/>
+      <c r="L161" s="39"/>
+    </row>
+    <row r="162" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I162" s="77"/>
+      <c r="J162" s="57"/>
+      <c r="L162" s="39"/>
+    </row>
+    <row r="163" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I163" s="77"/>
+      <c r="J163" s="57"/>
+      <c r="L163" s="39"/>
+    </row>
+    <row r="164" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I164" s="77"/>
+      <c r="J164" s="57"/>
+      <c r="L164" s="39"/>
+    </row>
+    <row r="165" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I165" s="77"/>
+      <c r="J165" s="57"/>
+      <c r="L165" s="39"/>
+    </row>
+    <row r="166" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I166" s="77"/>
+      <c r="J166" s="57"/>
+      <c r="L166" s="39"/>
+    </row>
+    <row r="167" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I167" s="77"/>
+      <c r="J167" s="57"/>
+      <c r="L167" s="39"/>
+    </row>
+    <row r="168" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I168" s="77"/>
+      <c r="J168" s="57"/>
+      <c r="L168" s="39"/>
+    </row>
+    <row r="169" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I169" s="77"/>
+      <c r="J169" s="57"/>
+      <c r="L169" s="39"/>
+    </row>
+    <row r="170" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I170" s="77"/>
+      <c r="J170" s="57"/>
+      <c r="L170" s="39"/>
+    </row>
+    <row r="171" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I171" s="77"/>
+      <c r="J171" s="57"/>
+    </row>
+    <row r="172" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I172" s="77"/>
+      <c r="J172" s="57"/>
+      <c r="L172" s="39"/>
+    </row>
+    <row r="173" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I173" s="77"/>
+      <c r="J173" s="57"/>
+      <c r="L173" s="39"/>
+    </row>
+    <row r="174" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I174" s="77"/>
+      <c r="J174" s="57"/>
+      <c r="L174" s="39"/>
+    </row>
+    <row r="175" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I175" s="77"/>
+      <c r="J175" s="57"/>
+      <c r="L175" s="39"/>
+    </row>
+    <row r="176" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I176" s="77"/>
+      <c r="J176" s="57"/>
+      <c r="L176" s="39"/>
+    </row>
+    <row r="177" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I177" s="77"/>
+      <c r="J177" s="57"/>
+      <c r="L177" s="39"/>
+    </row>
+    <row r="178" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I178" s="77"/>
+      <c r="J178" s="57"/>
+      <c r="L178" s="39"/>
+    </row>
+    <row r="179" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I179" s="77"/>
+      <c r="J179" s="57"/>
+      <c r="L179" s="39"/>
+    </row>
+    <row r="180" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I180" s="77"/>
+      <c r="J180" s="57"/>
+      <c r="L180" s="39"/>
+    </row>
+    <row r="181" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I181" s="77"/>
+      <c r="J181" s="57"/>
+      <c r="L181" s="39"/>
+    </row>
+    <row r="182" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I182" s="77"/>
+      <c r="J182" s="57"/>
+      <c r="L182" s="39"/>
+    </row>
+    <row r="183" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I183" s="77"/>
+      <c r="J183" s="57"/>
+      <c r="L183" s="39"/>
+    </row>
+    <row r="184" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I184" s="77"/>
+      <c r="J184" s="57"/>
+      <c r="L184" s="39"/>
+    </row>
+    <row r="185" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I185" s="77"/>
+      <c r="J185" s="57"/>
+      <c r="L185" s="39"/>
+    </row>
+    <row r="186" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I186" s="77"/>
+      <c r="J186" s="57"/>
+    </row>
+    <row r="187" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I187" s="77"/>
+      <c r="J187" s="57"/>
+      <c r="L187" s="39"/>
+    </row>
+    <row r="188" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I188" s="77"/>
+      <c r="J188" s="57"/>
+      <c r="L188" s="39"/>
+    </row>
+    <row r="189" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I189" s="77"/>
+      <c r="J189" s="57"/>
+      <c r="L189" s="39"/>
+    </row>
+    <row r="190" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I190" s="77"/>
+      <c r="J190" s="57"/>
+      <c r="L190" s="39"/>
+    </row>
+    <row r="191" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I191" s="77"/>
+      <c r="J191" s="57"/>
+      <c r="L191" s="39"/>
+    </row>
+    <row r="192" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I192" s="77"/>
+      <c r="J192" s="57"/>
+      <c r="L192" s="39"/>
+    </row>
+    <row r="193" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I193" s="77"/>
+      <c r="J193" s="57"/>
+      <c r="L193" s="39"/>
+    </row>
+    <row r="194" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I194" s="77"/>
+      <c r="J194" s="57"/>
+    </row>
+    <row r="195" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I195" s="77"/>
+      <c r="J195" s="57"/>
+      <c r="L195" s="39"/>
+    </row>
+    <row r="196" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I196" s="34"/>
+      <c r="J196" s="57"/>
+      <c r="L196" s="39"/>
+    </row>
+    <row r="197" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I197" s="34"/>
+      <c r="J197" s="57"/>
+      <c r="L197" s="39"/>
+    </row>
+    <row r="198" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I198" s="34"/>
+      <c r="J198" s="57"/>
+      <c r="L198" s="39"/>
+    </row>
+    <row r="199" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I199" s="34"/>
+      <c r="J199" s="57"/>
+      <c r="L199" s="39"/>
+    </row>
+    <row r="200" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I200" s="34"/>
+      <c r="J200" s="57"/>
+      <c r="L200" s="39"/>
+    </row>
+    <row r="201" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I201" s="34"/>
+      <c r="J201" s="57"/>
+      <c r="L201" s="39"/>
+    </row>
+    <row r="202" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I202" s="34"/>
+      <c r="J202" s="57"/>
+      <c r="L202" s="39"/>
+    </row>
+    <row r="203" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I203" s="34"/>
+      <c r="J203" s="57"/>
+      <c r="L203" s="39"/>
+    </row>
+    <row r="204" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I204" s="34"/>
+      <c r="J204" s="57"/>
+      <c r="L204" s="39"/>
+    </row>
+    <row r="205" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I205" s="34"/>
+      <c r="J205" s="57"/>
+      <c r="L205" s="39"/>
+    </row>
+    <row r="206" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I206" s="34"/>
+      <c r="J206" s="57"/>
+      <c r="L206" s="39"/>
+    </row>
+    <row r="207" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I207" s="34"/>
+      <c r="J207" s="57"/>
+      <c r="L207" s="39"/>
+    </row>
+    <row r="208" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I208" s="34"/>
+      <c r="J208" s="57"/>
+      <c r="L208" s="39"/>
+    </row>
+    <row r="209" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I209" s="34"/>
+      <c r="J209" s="57"/>
+      <c r="L209" s="39"/>
+    </row>
+    <row r="210" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I210" s="34"/>
+      <c r="J210" s="57"/>
+      <c r="L210" s="39"/>
+    </row>
+    <row r="211" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I211" s="34"/>
+      <c r="J211" s="57"/>
+      <c r="L211" s="39"/>
+    </row>
+    <row r="212" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I212" s="34"/>
+      <c r="J212" s="57"/>
+      <c r="L212" s="39"/>
+    </row>
+    <row r="213" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I213" s="34"/>
+      <c r="J213" s="57"/>
+      <c r="L213" s="39"/>
+    </row>
+    <row r="214" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I214" s="34"/>
+      <c r="J214" s="57"/>
+      <c r="L214" s="39"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:U200" xr:uid="{40EB89C0-F915-476E-958D-D103C3A6EDBD}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EB89C0-F915-476E-958D-D103C3A6EDBD}">
   <dimension ref="A1:CL214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="46" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="98.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" style="60" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="98.5546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.109375" style="60" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="2" customWidth="1"/>
-    <col min="18" max="21" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.44140625" style="2" customWidth="1"/>
+    <col min="18" max="21" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.109375" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="1" customFormat="1" ht="72.75">
+    <row r="1" spans="1:90" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3671,7 +8133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:90" s="1" customFormat="1" ht="43.5" customHeight="1">
+    <row r="2" spans="1:90" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="41"/>
       <c r="C2" s="64" t="s">
         <v>21</v>
@@ -3700,7 +8162,7 @@
       <c r="U2" s="45"/>
       <c r="V2" s="45"/>
     </row>
-    <row r="3" spans="1:90" s="1" customFormat="1" ht="46.5">
+    <row r="3" spans="1:90" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="B3" s="41"/>
       <c r="C3" s="66" t="s">
         <v>21</v>
@@ -3731,7 +8193,7 @@
       <c r="U3" s="45"/>
       <c r="V3" s="45"/>
     </row>
-    <row r="4" spans="1:90" s="1" customFormat="1" ht="29.25">
+    <row r="4" spans="1:90" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="36"/>
       <c r="C4" s="63" t="s">
         <v>21</v>
@@ -3768,7 +8230,7 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:90" s="1" customFormat="1" ht="46.5">
+    <row r="5" spans="1:90" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="B5" s="41"/>
       <c r="C5" s="66" t="s">
         <v>21</v>
@@ -3799,7 +8261,7 @@
       <c r="U5" s="45"/>
       <c r="V5" s="45"/>
     </row>
-    <row r="6" spans="1:90" s="40" customFormat="1" ht="29.25">
+    <row r="6" spans="1:90" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="30"/>
       <c r="C6" s="63" t="s">
@@ -3903,7 +8365,7 @@
       <c r="CK6" s="1"/>
       <c r="CL6" s="1"/>
     </row>
-    <row r="7" spans="1:90" s="1" customFormat="1" ht="29.25">
+    <row r="7" spans="1:90" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7"/>
       <c r="C7" s="63" t="s">
         <v>21</v>
@@ -3938,7 +8400,7 @@
       <c r="U7"/>
       <c r="V7"/>
     </row>
-    <row r="8" spans="1:90" s="1" customFormat="1" ht="144.75">
+    <row r="8" spans="1:90" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B8" s="54" t="s">
         <v>36</v>
       </c>
@@ -3975,7 +8437,7 @@
       <c r="U8"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:90" s="40" customFormat="1" ht="29.25">
+    <row r="9" spans="1:90" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9"/>
       <c r="C9" s="63" t="s">
@@ -4079,7 +8541,7 @@
       <c r="CK9" s="1"/>
       <c r="CL9" s="1"/>
     </row>
-    <row r="10" spans="1:90" s="1" customFormat="1" ht="29.25">
+    <row r="10" spans="1:90" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10"/>
       <c r="C10" s="63" t="s">
         <v>21</v>
@@ -4114,7 +8576,7 @@
       <c r="U10"/>
       <c r="V10"/>
     </row>
-    <row r="11" spans="1:90" s="1" customFormat="1" ht="87">
+    <row r="11" spans="1:90" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B11" s="36"/>
       <c r="C11" s="62" t="s">
         <v>44</v>
@@ -4157,7 +8619,7 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:90" s="40" customFormat="1" ht="87">
+    <row r="12" spans="1:90" s="40" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="36"/>
       <c r="C12" s="62" t="s">
@@ -4267,7 +8729,7 @@
       <c r="CK12" s="1"/>
       <c r="CL12" s="1"/>
     </row>
-    <row r="13" spans="1:90" s="1" customFormat="1" ht="87">
+    <row r="13" spans="1:90" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B13" s="36"/>
       <c r="C13" s="62" t="s">
         <v>44</v>
@@ -4308,7 +8770,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:90" s="1" customFormat="1" ht="87">
+    <row r="14" spans="1:90" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B14" s="36"/>
       <c r="C14" s="62" t="s">
         <v>44</v>
@@ -4349,7 +8811,7 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:90" s="40" customFormat="1" ht="87">
+    <row r="15" spans="1:90" s="40" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="36"/>
       <c r="C15" s="62" t="s">
@@ -4459,7 +8921,7 @@
       <c r="CK15" s="1"/>
       <c r="CL15" s="1"/>
     </row>
-    <row r="16" spans="1:90" s="40" customFormat="1" ht="87">
+    <row r="16" spans="1:90" s="40" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="36"/>
       <c r="C16" s="62" t="s">
@@ -4569,7 +9031,7 @@
       <c r="CK16" s="1"/>
       <c r="CL16" s="1"/>
     </row>
-    <row r="17" spans="1:90" s="40" customFormat="1" ht="101.25">
+    <row r="17" spans="1:90" s="40" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="36"/>
       <c r="C17" s="62" t="s">
@@ -4679,7 +9141,7 @@
       <c r="CK17" s="1"/>
       <c r="CL17" s="1"/>
     </row>
-    <row r="18" spans="1:90" s="40" customFormat="1" ht="101.25">
+    <row r="18" spans="1:90" s="40" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="36"/>
       <c r="C18" s="62" t="s">
@@ -4789,7 +9251,7 @@
       <c r="CK18" s="1"/>
       <c r="CL18" s="1"/>
     </row>
-    <row r="19" spans="1:90" s="40" customFormat="1" ht="101.25">
+    <row r="19" spans="1:90" s="40" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="36"/>
       <c r="C19" s="62" t="s">
@@ -4899,7 +9361,7 @@
       <c r="CK19" s="1"/>
       <c r="CL19" s="1"/>
     </row>
-    <row r="20" spans="1:90" s="40" customFormat="1" ht="101.25">
+    <row r="20" spans="1:90" s="40" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="36"/>
       <c r="C20" s="62" t="s">
@@ -5009,7 +9471,7 @@
       <c r="CK20" s="1"/>
       <c r="CL20" s="1"/>
     </row>
-    <row r="21" spans="1:90" s="40" customFormat="1" ht="29.25">
+    <row r="21" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="36"/>
       <c r="C21" s="62" t="s">
@@ -5117,7 +9579,7 @@
       <c r="CK21" s="1"/>
       <c r="CL21" s="1"/>
     </row>
-    <row r="22" spans="1:90" s="40" customFormat="1">
+    <row r="22" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="36"/>
       <c r="C22" s="62" t="s">
@@ -5225,7 +9687,7 @@
       <c r="CK22" s="1"/>
       <c r="CL22" s="1"/>
     </row>
-    <row r="23" spans="1:90" s="40" customFormat="1" ht="30.75">
+    <row r="23" spans="1:90" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="36"/>
       <c r="C23" s="62" t="s">
@@ -5333,7 +9795,7 @@
       <c r="CK23" s="1"/>
       <c r="CL23" s="1"/>
     </row>
-    <row r="24" spans="1:90" s="40" customFormat="1">
+    <row r="24" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="36"/>
       <c r="C24" s="62" t="s">
@@ -5441,7 +9903,7 @@
       <c r="CK24" s="1"/>
       <c r="CL24" s="1"/>
     </row>
-    <row r="25" spans="1:90" s="40" customFormat="1" ht="29.25">
+    <row r="25" spans="1:90" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="36"/>
       <c r="C25" s="62" t="s">
@@ -5551,7 +10013,7 @@
       <c r="CK25" s="1"/>
       <c r="CL25" s="1"/>
     </row>
-    <row r="26" spans="1:90" s="1" customFormat="1" ht="29.25">
+    <row r="26" spans="1:90" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B26"/>
       <c r="C26" s="33" t="s">
         <v>80</v>
@@ -5590,7 +10052,7 @@
       <c r="U26"/>
       <c r="V26"/>
     </row>
-    <row r="27" spans="1:90" s="1" customFormat="1" ht="87">
+    <row r="27" spans="1:90" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B27" s="36"/>
       <c r="C27" s="62" t="s">
         <v>80</v>
@@ -5631,7 +10093,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
     </row>
-    <row r="28" spans="1:90" s="1" customFormat="1" ht="29.25">
+    <row r="28" spans="1:90" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B28"/>
       <c r="C28" s="33" t="s">
         <v>80</v>
@@ -5666,7 +10128,7 @@
       <c r="U28"/>
       <c r="V28"/>
     </row>
-    <row r="29" spans="1:90" s="1" customFormat="1" ht="87">
+    <row r="29" spans="1:90" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B29" s="36"/>
       <c r="C29" s="62" t="s">
         <v>80</v>
@@ -5705,7 +10167,7 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
     </row>
-    <row r="30" spans="1:90" s="1" customFormat="1" ht="29.25">
+    <row r="30" spans="1:90" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B30" s="36"/>
       <c r="C30" s="62" t="s">
         <v>80</v>
@@ -5740,7 +10202,7 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
     </row>
-    <row r="31" spans="1:90" s="40" customFormat="1" ht="87">
+    <row r="31" spans="1:90" s="40" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="36"/>
       <c r="C31" s="62" t="s">
@@ -5850,7 +10312,7 @@
       <c r="CK31" s="1"/>
       <c r="CL31" s="1"/>
     </row>
-    <row r="32" spans="1:90" s="1" customFormat="1" ht="87">
+    <row r="32" spans="1:90" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32" s="33" t="s">
         <v>80</v>
@@ -5891,7 +10353,7 @@
       <c r="U32"/>
       <c r="V32"/>
     </row>
-    <row r="33" spans="1:90" s="1" customFormat="1" ht="87">
+    <row r="33" spans="1:90" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B33" s="36"/>
       <c r="C33" s="62" t="s">
         <v>80</v>
@@ -5932,7 +10394,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
     </row>
-    <row r="34" spans="1:90" s="1" customFormat="1" ht="87">
+    <row r="34" spans="1:90" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B34" s="36"/>
       <c r="C34" s="62" t="s">
         <v>80</v>
@@ -5973,7 +10435,7 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
     </row>
-    <row r="35" spans="1:90" s="40" customFormat="1" ht="87">
+    <row r="35" spans="1:90" s="40" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="36"/>
       <c r="C35" s="62" t="s">
@@ -6081,7 +10543,7 @@
       <c r="CK35" s="1"/>
       <c r="CL35" s="1"/>
     </row>
-    <row r="36" spans="1:90" s="1" customFormat="1" ht="87">
+    <row r="36" spans="1:90" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B36" s="36"/>
       <c r="C36" s="62" t="s">
         <v>80</v>
@@ -6120,7 +10582,7 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
     </row>
-    <row r="37" spans="1:90" s="1" customFormat="1">
+    <row r="37" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="41"/>
       <c r="C37" s="64" t="s">
         <v>80</v>
@@ -6149,7 +10611,7 @@
       <c r="U37" s="45"/>
       <c r="V37" s="45"/>
     </row>
-    <row r="38" spans="1:90" s="1" customFormat="1">
+    <row r="38" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38"/>
       <c r="C38" s="63" t="s">
         <v>80</v>
@@ -6186,7 +10648,7 @@
       <c r="U38"/>
       <c r="V38"/>
     </row>
-    <row r="39" spans="1:90" s="1" customFormat="1">
+    <row r="39" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39"/>
       <c r="C39" s="63" t="s">
         <v>80</v>
@@ -6223,7 +10685,7 @@
       <c r="U39"/>
       <c r="V39"/>
     </row>
-    <row r="40" spans="1:90" s="1" customFormat="1">
+    <row r="40" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="36"/>
       <c r="C40" s="63" t="s">
         <v>80</v>
@@ -6258,7 +10720,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
     </row>
-    <row r="41" spans="1:90" s="1" customFormat="1">
+    <row r="41" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41"/>
       <c r="C41" s="63" t="s">
         <v>80</v>
@@ -6295,7 +10757,7 @@
       <c r="U41"/>
       <c r="V41"/>
     </row>
-    <row r="42" spans="1:90" s="1" customFormat="1">
+    <row r="42" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42"/>
       <c r="C42" s="63" t="s">
         <v>80</v>
@@ -6332,7 +10794,7 @@
       <c r="U42"/>
       <c r="V42"/>
     </row>
-    <row r="43" spans="1:90" s="40" customFormat="1">
+    <row r="43" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43"/>
       <c r="C43" s="63" t="s">
@@ -6438,7 +10900,7 @@
       <c r="CK43" s="1"/>
       <c r="CL43" s="1"/>
     </row>
-    <row r="44" spans="1:90" s="1" customFormat="1">
+    <row r="44" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44"/>
       <c r="C44" s="63" t="s">
         <v>80</v>
@@ -6475,7 +10937,7 @@
       <c r="U44"/>
       <c r="V44"/>
     </row>
-    <row r="45" spans="1:90" s="1" customFormat="1">
+    <row r="45" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45"/>
       <c r="C45" s="63" t="s">
         <v>80</v>
@@ -6512,7 +10974,7 @@
       <c r="U45"/>
       <c r="V45"/>
     </row>
-    <row r="46" spans="1:90" s="1" customFormat="1">
+    <row r="46" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46"/>
       <c r="C46" s="63" t="s">
         <v>80</v>
@@ -6549,7 +11011,7 @@
       <c r="U46"/>
       <c r="V46"/>
     </row>
-    <row r="47" spans="1:90" s="1" customFormat="1">
+    <row r="47" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="41"/>
       <c r="C47" s="62" t="s">
         <v>80</v>
@@ -6578,7 +11040,7 @@
       <c r="U47" s="45"/>
       <c r="V47" s="45"/>
     </row>
-    <row r="48" spans="1:90" s="1" customFormat="1">
+    <row r="48" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48"/>
       <c r="C48" s="63" t="s">
         <v>80</v>
@@ -6615,7 +11077,7 @@
       <c r="U48"/>
       <c r="V48"/>
     </row>
-    <row r="49" spans="1:90" s="1" customFormat="1">
+    <row r="49" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49"/>
       <c r="C49" s="63" t="s">
         <v>80</v>
@@ -6652,7 +11114,7 @@
       <c r="U49"/>
       <c r="V49"/>
     </row>
-    <row r="50" spans="1:90" s="40" customFormat="1">
+    <row r="50" spans="1:90" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50"/>
       <c r="C50" s="63" t="s">
@@ -6758,7 +11220,7 @@
       <c r="CK50" s="1"/>
       <c r="CL50" s="1"/>
     </row>
-    <row r="51" spans="1:90" s="1" customFormat="1">
+    <row r="51" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51"/>
       <c r="C51" s="63" t="s">
         <v>80</v>
@@ -6795,7 +11257,7 @@
       <c r="U51"/>
       <c r="V51"/>
     </row>
-    <row r="52" spans="1:90" s="1" customFormat="1">
+    <row r="52" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52"/>
       <c r="C52" s="63" t="s">
         <v>80</v>
@@ -6832,7 +11294,7 @@
       <c r="U52"/>
       <c r="V52"/>
     </row>
-    <row r="53" spans="1:90" s="1" customFormat="1" ht="29.25">
+    <row r="53" spans="1:90" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B53" s="36"/>
       <c r="C53" s="62" t="s">
         <v>80</v>
@@ -6869,7 +11331,7 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
     </row>
-    <row r="54" spans="1:90" s="1" customFormat="1">
+    <row r="54" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="36"/>
       <c r="C54" s="63" t="s">
         <v>80</v>
@@ -6904,7 +11366,7 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
     </row>
-    <row r="55" spans="1:90" s="1" customFormat="1">
+    <row r="55" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="56" t="s">
         <v>115</v>
       </c>
@@ -6939,7 +11401,7 @@
       <c r="U55"/>
       <c r="V55"/>
     </row>
-    <row r="56" spans="1:90" s="1" customFormat="1">
+    <row r="56" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56"/>
       <c r="C56" s="63" t="s">
         <v>80</v>
@@ -6976,7 +11438,7 @@
       <c r="U56"/>
       <c r="V56"/>
     </row>
-    <row r="57" spans="1:90" s="1" customFormat="1" ht="29.25">
+    <row r="57" spans="1:90" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B57"/>
       <c r="C57" s="63" t="s">
         <v>80</v>
@@ -7015,7 +11477,7 @@
       <c r="U57"/>
       <c r="V57"/>
     </row>
-    <row r="58" spans="1:90" s="1" customFormat="1" ht="29.25">
+    <row r="58" spans="1:90" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B58"/>
       <c r="C58" s="63" t="s">
         <v>80</v>
@@ -7054,7 +11516,7 @@
       <c r="U58"/>
       <c r="V58"/>
     </row>
-    <row r="59" spans="1:90" s="1" customFormat="1">
+    <row r="59" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59"/>
       <c r="C59" s="63" t="s">
         <v>80</v>
@@ -7091,7 +11553,7 @@
       <c r="U59"/>
       <c r="V59"/>
     </row>
-    <row r="60" spans="1:90" s="1" customFormat="1">
+    <row r="60" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60"/>
       <c r="C60" s="63" t="s">
         <v>80</v>
@@ -7128,7 +11590,7 @@
       <c r="U60"/>
       <c r="V60"/>
     </row>
-    <row r="61" spans="1:90" s="1" customFormat="1">
+    <row r="61" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61"/>
       <c r="C61" s="63" t="s">
         <v>80</v>
@@ -7165,7 +11627,7 @@
       <c r="U61"/>
       <c r="V61"/>
     </row>
-    <row r="62" spans="1:90" s="1" customFormat="1">
+    <row r="62" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62"/>
       <c r="C62" s="63" t="s">
         <v>80</v>
@@ -7202,7 +11664,7 @@
       <c r="U62"/>
       <c r="V62"/>
     </row>
-    <row r="63" spans="1:90" s="1" customFormat="1">
+    <row r="63" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63"/>
       <c r="C63" s="63" t="s">
         <v>80</v>
@@ -7239,7 +11701,7 @@
       <c r="U63"/>
       <c r="V63"/>
     </row>
-    <row r="64" spans="1:90" s="1" customFormat="1">
+    <row r="64" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64"/>
       <c r="C64" s="63" t="s">
         <v>80</v>
@@ -7276,7 +11738,7 @@
       <c r="U64"/>
       <c r="V64"/>
     </row>
-    <row r="65" spans="2:22" s="1" customFormat="1">
+    <row r="65" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65"/>
       <c r="C65" s="63" t="s">
         <v>80</v>
@@ -7313,7 +11775,7 @@
       <c r="U65"/>
       <c r="V65"/>
     </row>
-    <row r="66" spans="2:22" s="1" customFormat="1">
+    <row r="66" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66"/>
       <c r="C66" s="63" t="s">
         <v>80</v>
@@ -7350,7 +11812,7 @@
       <c r="U66"/>
       <c r="V66"/>
     </row>
-    <row r="67" spans="2:22" s="1" customFormat="1">
+    <row r="67" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67"/>
       <c r="C67" s="63" t="s">
         <v>80</v>
@@ -7387,7 +11849,7 @@
       <c r="U67"/>
       <c r="V67"/>
     </row>
-    <row r="68" spans="2:22" s="1" customFormat="1">
+    <row r="68" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="61"/>
       <c r="C68" s="63" t="s">
         <v>80</v>
@@ -7424,7 +11886,7 @@
       <c r="U68"/>
       <c r="V68"/>
     </row>
-    <row r="69" spans="2:22" s="1" customFormat="1">
+    <row r="69" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="61"/>
       <c r="C69" s="63" t="s">
         <v>80</v>
@@ -7461,7 +11923,7 @@
       <c r="U69"/>
       <c r="V69"/>
     </row>
-    <row r="70" spans="2:22" s="1" customFormat="1">
+    <row r="70" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="61"/>
       <c r="C70" s="63" t="s">
         <v>80</v>
@@ -7498,7 +11960,7 @@
       <c r="U70"/>
       <c r="V70"/>
     </row>
-    <row r="71" spans="2:22">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C71" s="63" t="s">
         <v>80</v>
       </c>
@@ -7522,7 +11984,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="2:22">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C72" s="63" t="s">
         <v>80</v>
       </c>
@@ -7546,7 +12008,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="2:22" ht="29.25">
+    <row r="73" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C73" s="33" t="s">
         <v>80</v>
       </c>
@@ -7570,7 +12032,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="2:22" ht="29.25">
+    <row r="74" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C74" s="33" t="s">
         <v>80</v>
       </c>
@@ -7594,7 +12056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="2:22" ht="29.25">
+    <row r="75" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C75" s="63" t="s">
         <v>80</v>
       </c>
@@ -7618,7 +12080,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="2:22" ht="29.25">
+    <row r="76" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C76" s="63" t="s">
         <v>80</v>
       </c>
@@ -7642,7 +12104,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="2:22" ht="45.75">
+    <row r="77" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B77" s="56" t="s">
         <v>115</v>
       </c>
@@ -7666,7 +12128,7 @@
       </c>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="2:22">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C78" s="63" t="s">
         <v>80</v>
       </c>
@@ -7690,7 +12152,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="2:22">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C79" s="63" t="s">
         <v>80</v>
       </c>
@@ -7714,7 +12176,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="2:22">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B80" s="56" t="s">
         <v>115</v>
       </c>
@@ -7736,7 +12198,7 @@
       <c r="J80" s="57"/>
       <c r="Q80"/>
     </row>
-    <row r="81" spans="2:22" ht="29.25">
+    <row r="81" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C81" s="63" t="s">
         <v>80</v>
       </c>
@@ -7760,7 +12222,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="2:22" ht="29.25">
+    <row r="82" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C82" s="63" t="s">
         <v>80</v>
       </c>
@@ -7784,7 +12246,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="2:22">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B83" s="36"/>
       <c r="C83" s="63" t="s">
         <v>80</v>
@@ -7821,7 +12283,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
     </row>
-    <row r="84" spans="2:22" ht="29.25">
+    <row r="84" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C84" s="63" t="s">
         <v>80</v>
       </c>
@@ -7845,7 +12307,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="2:22" ht="29.25">
+    <row r="85" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C85" s="63" t="s">
         <v>80</v>
       </c>
@@ -7869,7 +12331,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="2:22" ht="29.25">
+    <row r="86" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C86" s="63" t="s">
         <v>80</v>
       </c>
@@ -7893,7 +12355,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="2:22" ht="29.25">
+    <row r="87" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C87" s="63" t="s">
         <v>80</v>
       </c>
@@ -7917,7 +12379,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="2:22">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C88" s="63" t="s">
         <v>80</v>
       </c>
@@ -7941,7 +12403,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="2:22">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C89" s="63" t="s">
         <v>80</v>
       </c>
@@ -7965,7 +12427,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="2:22" ht="29.25">
+    <row r="90" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C90" s="63" t="s">
         <v>80</v>
       </c>
@@ -7989,7 +12451,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="2:22" ht="29.25">
+    <row r="91" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C91" s="63" t="s">
         <v>80</v>
       </c>
@@ -8013,7 +12475,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="2:22" ht="29.25">
+    <row r="92" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C92" s="63" t="s">
         <v>80</v>
       </c>
@@ -8037,7 +12499,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="2:22" ht="29.25">
+    <row r="93" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C93" s="63" t="s">
         <v>80</v>
       </c>
@@ -8061,7 +12523,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="2:22" ht="29.25">
+    <row r="94" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C94" s="63" t="s">
         <v>80</v>
       </c>
@@ -8085,7 +12547,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="2:22">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C95" s="63" t="s">
         <v>80</v>
       </c>
@@ -8109,7 +12571,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="2:22">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C96" s="63" t="s">
         <v>80</v>
       </c>
@@ -8133,7 +12595,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="2:22" ht="29.25">
+    <row r="97" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C97" s="63" t="s">
         <v>80</v>
       </c>
@@ -8157,7 +12619,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="2:22" ht="29.25">
+    <row r="98" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C98" s="63" t="s">
         <v>80</v>
       </c>
@@ -8181,7 +12643,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="2:22" ht="29.25">
+    <row r="99" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B99" s="36"/>
       <c r="C99" s="63" t="s">
         <v>80</v>
@@ -8218,7 +12680,7 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
     </row>
-    <row r="100" spans="2:22" ht="29.25">
+    <row r="100" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C100" s="63" t="s">
         <v>80</v>
       </c>
@@ -8242,7 +12704,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="2:22" ht="29.25">
+    <row r="101" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C101" s="63" t="s">
         <v>80</v>
       </c>
@@ -8266,7 +12728,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="2:22" ht="29.25">
+    <row r="102" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C102" s="63" t="s">
         <v>80</v>
       </c>
@@ -8290,7 +12752,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="103" spans="2:22">
+    <row r="103" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C103" s="63" t="s">
         <v>80</v>
       </c>
@@ -8314,7 +12776,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="2:22" ht="30.75">
+    <row r="104" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B104" s="55" t="s">
         <v>180</v>
       </c>
@@ -8335,7 +12797,7 @@
       </c>
       <c r="J104" s="57"/>
     </row>
-    <row r="105" spans="2:22" ht="29.25">
+    <row r="105" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B105" s="36"/>
       <c r="C105" s="62" t="s">
         <v>184</v>
@@ -8372,7 +12834,7 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
     </row>
-    <row r="106" spans="2:22" ht="30.75">
+    <row r="106" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B106" s="55" t="s">
         <v>180</v>
       </c>
@@ -8393,7 +12855,7 @@
       </c>
       <c r="J106" s="57"/>
     </row>
-    <row r="107" spans="2:22">
+    <row r="107" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B107" s="36"/>
       <c r="C107" s="62" t="s">
         <v>187</v>
@@ -8430,7 +12892,7 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
     </row>
-    <row r="108" spans="2:22" ht="29.25">
+    <row r="108" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B108" s="36"/>
       <c r="C108" s="62" t="s">
         <v>187</v>
@@ -8467,7 +12929,7 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
     </row>
-    <row r="109" spans="2:22">
+    <row r="109" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B109" s="36"/>
       <c r="C109" s="62" t="s">
         <v>187</v>
@@ -8508,7 +12970,7 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
     </row>
-    <row r="110" spans="2:22" ht="29.25">
+    <row r="110" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B110" s="36"/>
       <c r="C110" s="62" t="s">
         <v>187</v>
@@ -8543,7 +13005,7 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
     </row>
-    <row r="111" spans="2:22" ht="29.25">
+    <row r="111" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B111" s="36"/>
       <c r="C111" s="62" t="s">
         <v>187</v>
@@ -8580,7 +13042,7 @@
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
     </row>
-    <row r="112" spans="2:22" ht="29.25">
+    <row r="112" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C112" s="33" t="s">
         <v>187</v>
       </c>
@@ -8609,7 +13071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="2:22" ht="29.25">
+    <row r="113" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C113" s="33" t="s">
         <v>187</v>
       </c>
@@ -8637,7 +13099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="2:22" ht="29.25">
+    <row r="114" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B114" s="36"/>
       <c r="C114" s="62" t="s">
         <v>187</v>
@@ -8676,7 +13138,7 @@
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
     </row>
-    <row r="115" spans="2:22" ht="72.75">
+    <row r="115" spans="2:22" ht="72" x14ac:dyDescent="0.3">
       <c r="C115" s="33" t="s">
         <v>187</v>
       </c>
@@ -8704,7 +13166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="2:22" ht="29.25">
+    <row r="116" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B116" s="36"/>
       <c r="C116" s="62" t="s">
         <v>187</v>
@@ -8743,7 +13205,7 @@
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
     </row>
-    <row r="117" spans="2:22" ht="29.25">
+    <row r="117" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B117" s="36"/>
       <c r="C117" s="62" t="s">
         <v>187</v>
@@ -8780,7 +13242,7 @@
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
     </row>
-    <row r="118" spans="2:22" ht="29.25">
+    <row r="118" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B118" s="36"/>
       <c r="C118" s="62" t="s">
         <v>187</v>
@@ -8821,7 +13283,7 @@
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
     </row>
-    <row r="119" spans="2:22" ht="29.25">
+    <row r="119" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C119" s="33" t="s">
         <v>187</v>
       </c>
@@ -8846,7 +13308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="2:22" ht="29.25">
+    <row r="120" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B120" s="36"/>
       <c r="C120" s="62" t="s">
         <v>187</v>
@@ -8883,7 +13345,7 @@
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
     </row>
-    <row r="121" spans="2:22" ht="43.5">
+    <row r="121" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B121" s="36"/>
       <c r="C121" s="62" t="s">
         <v>187</v>
@@ -8924,7 +13386,7 @@
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
     </row>
-    <row r="122" spans="2:22" ht="43.5">
+    <row r="122" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B122" s="41"/>
       <c r="C122" s="62" t="s">
         <v>187</v>
@@ -8957,7 +13419,7 @@
       <c r="U122" s="45"/>
       <c r="V122" s="45"/>
     </row>
-    <row r="123" spans="2:22">
+    <row r="123" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B123" s="36"/>
       <c r="C123" s="62" t="s">
         <v>187</v>
@@ -8994,7 +13456,7 @@
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
     </row>
-    <row r="124" spans="2:22">
+    <row r="124" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B124" s="41"/>
       <c r="C124" s="62" t="s">
         <v>187</v>
@@ -9023,7 +13485,7 @@
       <c r="U124" s="45"/>
       <c r="V124" s="45"/>
     </row>
-    <row r="125" spans="2:22" ht="29.25">
+    <row r="125" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B125" s="36"/>
       <c r="C125" s="62" t="s">
         <v>187</v>
@@ -9060,7 +13522,7 @@
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
     </row>
-    <row r="126" spans="2:22" ht="29.25">
+    <row r="126" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B126" s="36"/>
       <c r="C126" s="62" t="s">
         <v>187</v>
@@ -9101,7 +13563,7 @@
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
     </row>
-    <row r="127" spans="2:22" ht="29.25">
+    <row r="127" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B127" s="36"/>
       <c r="C127" s="62" t="s">
         <v>187</v>
@@ -9138,7 +13600,7 @@
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
     </row>
-    <row r="128" spans="2:22" ht="29.25">
+    <row r="128" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B128" s="30"/>
       <c r="C128" s="62" t="s">
         <v>187</v>
@@ -9175,7 +13637,7 @@
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
     </row>
-    <row r="129" spans="2:22" ht="29.25">
+    <row r="129" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B129" s="36"/>
       <c r="C129" s="62" t="s">
         <v>187</v>
@@ -9212,7 +13674,7 @@
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
     </row>
-    <row r="130" spans="2:22" ht="121.5">
+    <row r="130" spans="2:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C130" s="33" t="s">
         <v>187</v>
       </c>
@@ -9237,7 +13699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="2:22" ht="30.75">
+    <row r="131" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C131" s="33" t="s">
         <v>187</v>
       </c>
@@ -9263,7 +13725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="2:22" ht="29.25">
+    <row r="132" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B132" s="36"/>
       <c r="C132" s="62" t="s">
         <v>187</v>
@@ -9300,7 +13762,7 @@
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
     </row>
-    <row r="133" spans="2:22" ht="29.25">
+    <row r="133" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B133" s="36"/>
       <c r="C133" s="62" t="s">
         <v>187</v>
@@ -9339,7 +13801,7 @@
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
     </row>
-    <row r="134" spans="2:22">
+    <row r="134" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>234</v>
       </c>
@@ -9358,7 +13820,7 @@
       </c>
       <c r="J134" s="57"/>
     </row>
-    <row r="135" spans="2:22">
+    <row r="135" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C135" s="62" t="s">
         <v>187</v>
       </c>
@@ -9384,7 +13846,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="136" spans="2:22">
+    <row r="136" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C136" s="62" t="s">
         <v>187</v>
       </c>
@@ -9395,7 +13857,7 @@
       <c r="J136" s="57"/>
       <c r="L136" s="37"/>
     </row>
-    <row r="137" spans="2:22" ht="29.25">
+    <row r="137" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B137" s="36"/>
       <c r="C137" s="62" t="s">
         <v>240</v>
@@ -9436,7 +13898,7 @@
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
     </row>
-    <row r="138" spans="2:22">
+    <row r="138" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C138" s="33" t="s">
         <v>240</v>
       </c>
@@ -9458,7 +13920,7 @@
       </c>
       <c r="J138" s="57"/>
     </row>
-    <row r="139" spans="2:22" ht="87">
+    <row r="139" spans="2:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B139" s="36"/>
       <c r="C139" s="62" t="s">
         <v>240</v>
@@ -9499,7 +13961,7 @@
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
     </row>
-    <row r="140" spans="2:22" ht="101.25">
+    <row r="140" spans="2:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B140" s="36"/>
       <c r="C140" s="63" t="s">
         <v>240</v>
@@ -9542,7 +14004,7 @@
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
     </row>
-    <row r="141" spans="2:22">
+    <row r="141" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B141" s="36"/>
       <c r="C141" s="63" t="s">
         <v>240</v>
@@ -9569,7 +14031,7 @@
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
     </row>
-    <row r="142" spans="2:22">
+    <row r="142" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B142" s="36"/>
       <c r="C142" s="63" t="s">
         <v>240</v>
@@ -9598,7 +14060,7 @@
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
     </row>
-    <row r="143" spans="2:22">
+    <row r="143" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B143" s="36"/>
       <c r="C143" s="63" t="s">
         <v>240</v>
@@ -9627,7 +14089,7 @@
       <c r="U143" s="3"/>
       <c r="V143" s="3"/>
     </row>
-    <row r="144" spans="2:22">
+    <row r="144" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B144" s="41"/>
       <c r="C144" s="62" t="s">
         <v>253</v>
@@ -9658,7 +14120,7 @@
       <c r="U144" s="45"/>
       <c r="V144" s="45"/>
     </row>
-    <row r="145" spans="2:22" ht="29.25">
+    <row r="145" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B145" s="36"/>
       <c r="C145" s="65" t="s">
         <v>253</v>
@@ -9695,7 +14157,7 @@
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
     </row>
-    <row r="146" spans="2:22">
+    <row r="146" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B146" s="41"/>
       <c r="C146" s="62" t="s">
         <v>253</v>
@@ -9726,7 +14188,7 @@
       <c r="U146" s="45"/>
       <c r="V146" s="45"/>
     </row>
-    <row r="147" spans="2:22" ht="43.5">
+    <row r="147" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B147" s="36"/>
       <c r="C147" s="65" t="s">
         <v>253</v>
@@ -9767,7 +14229,7 @@
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
     </row>
-    <row r="148" spans="2:22" ht="29.25">
+    <row r="148" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B148" s="36"/>
       <c r="C148" s="65" t="s">
         <v>253</v>
@@ -9802,7 +14264,7 @@
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
     </row>
-    <row r="149" spans="2:22" ht="29.25">
+    <row r="149" spans="2:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B149" s="36"/>
       <c r="C149" s="62" t="s">
         <v>253</v>
@@ -9839,7 +14301,7 @@
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
     </row>
-    <row r="150" spans="2:22" ht="73.5" customHeight="1">
+    <row r="150" spans="2:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C150" s="33" t="s">
         <v>253</v>
       </c>
@@ -9863,7 +14325,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="2:22">
+    <row r="151" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C151" s="62" t="s">
         <v>262</v>
       </c>
@@ -9875,7 +14337,7 @@
       </c>
       <c r="J151" s="57"/>
     </row>
-    <row r="152" spans="2:22">
+    <row r="152" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C152" s="62" t="s">
         <v>262</v>
       </c>
@@ -9884,7 +14346,7 @@
       </c>
       <c r="J152" s="57"/>
     </row>
-    <row r="153" spans="2:22">
+    <row r="153" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C153" s="62" t="s">
         <v>262</v>
       </c>
@@ -9893,7 +14355,7 @@
       </c>
       <c r="J153" s="57"/>
     </row>
-    <row r="154" spans="2:22">
+    <row r="154" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C154" s="62" t="s">
         <v>262</v>
       </c>
@@ -9902,7 +14364,7 @@
       </c>
       <c r="J154" s="57"/>
     </row>
-    <row r="155" spans="2:22">
+    <row r="155" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C155" s="62" t="s">
         <v>187</v>
       </c>
@@ -9928,7 +14390,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="156" spans="2:22">
+    <row r="156" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C156" s="62" t="s">
         <v>187</v>
       </c>
@@ -9954,7 +14416,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="157" spans="2:22">
+    <row r="157" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C157" s="62" t="s">
         <v>187</v>
       </c>
@@ -9980,7 +14442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="158" spans="2:22">
+    <row r="158" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C158" s="62" t="s">
         <v>187</v>
       </c>
@@ -10006,7 +14468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="159" spans="2:22">
+    <row r="159" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C159" s="62" t="s">
         <v>44</v>
       </c>
@@ -10032,7 +14494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="2:22">
+    <row r="160" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C160" s="62" t="s">
         <v>44</v>
       </c>
@@ -10056,7 +14518,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="161" spans="3:13" ht="115.5">
+    <row r="161" spans="3:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C161" s="62" t="s">
         <v>44</v>
       </c>
@@ -10082,7 +14544,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="162" spans="3:13">
+    <row r="162" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C162" s="62" t="s">
         <v>44</v>
       </c>
@@ -10105,7 +14567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="3:13" ht="43.5">
+    <row r="163" spans="3:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C163" s="62" t="s">
         <v>44</v>
       </c>
@@ -10129,7 +14591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="3:13" ht="43.5">
+    <row r="164" spans="3:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C164" s="62" t="s">
         <v>44</v>
       </c>
@@ -10153,7 +14615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="3:13" ht="43.5">
+    <row r="165" spans="3:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C165" s="62" t="s">
         <v>262</v>
       </c>
@@ -10179,7 +14641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="3:13">
+    <row r="166" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C166" s="62" t="s">
         <v>44</v>
       </c>
@@ -10202,7 +14664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="3:13">
+    <row r="167" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C167" s="62" t="s">
         <v>44</v>
       </c>
@@ -10225,7 +14687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="3:13" ht="29.25">
+    <row r="168" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C168" s="62" t="s">
         <v>187</v>
       </c>
@@ -10251,7 +14713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="3:13">
+    <row r="169" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C169" s="62" t="s">
         <v>262</v>
       </c>
@@ -10277,7 +14739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="170" spans="3:13">
+    <row r="170" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C170" s="62" t="s">
         <v>187</v>
       </c>
@@ -10300,7 +14762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="171" spans="3:13" ht="43.5">
+    <row r="171" spans="3:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C171" s="62" t="s">
         <v>187</v>
       </c>
@@ -10323,7 +14785,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="172" spans="3:13" ht="72.75">
+    <row r="172" spans="3:13" ht="72" x14ac:dyDescent="0.3">
       <c r="C172" s="62" t="s">
         <v>262</v>
       </c>
@@ -10344,7 +14806,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="173" spans="3:13">
+    <row r="173" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C173" s="62" t="s">
         <v>262</v>
       </c>
@@ -10362,7 +14824,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="174" spans="3:13" ht="72.75">
+    <row r="174" spans="3:13" ht="72" x14ac:dyDescent="0.3">
       <c r="C174" s="62" t="s">
         <v>262</v>
       </c>
@@ -10383,7 +14845,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="175" spans="3:13" ht="43.5">
+    <row r="175" spans="3:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C175" s="62" t="s">
         <v>262</v>
       </c>
@@ -10404,7 +14866,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="176" spans="3:13" ht="29.25">
+    <row r="176" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C176" s="62" t="s">
         <v>262</v>
       </c>
@@ -10427,7 +14889,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="177" spans="3:12" ht="57.75">
+    <row r="177" spans="3:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C177" s="62" t="s">
         <v>262</v>
       </c>
@@ -10450,7 +14912,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="178" spans="3:12">
+    <row r="178" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C178" s="62" t="s">
         <v>262</v>
       </c>
@@ -10470,7 +14932,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="179" spans="3:12">
+    <row r="179" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C179" s="62" t="s">
         <v>262</v>
       </c>
@@ -10493,7 +14955,7 @@
         <v>45637</v>
       </c>
     </row>
-    <row r="180" spans="3:12" ht="72.75">
+    <row r="180" spans="3:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C180" s="62" t="s">
         <v>262</v>
       </c>
@@ -10516,7 +14978,7 @@
         <v>45700</v>
       </c>
     </row>
-    <row r="181" spans="3:12">
+    <row r="181" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C181" s="62" t="s">
         <v>262</v>
       </c>
@@ -10536,7 +14998,7 @@
         <v>45637</v>
       </c>
     </row>
-    <row r="182" spans="3:12" ht="29.25">
+    <row r="182" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C182" s="62" t="s">
         <v>262</v>
       </c>
@@ -10559,7 +15021,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="183" spans="3:12" ht="57.75">
+    <row r="183" spans="3:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C183" s="62" t="s">
         <v>262</v>
       </c>
@@ -10582,7 +15044,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="184" spans="3:12">
+    <row r="184" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C184" s="62" t="s">
         <v>262</v>
       </c>
@@ -10602,7 +15064,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="185" spans="3:12" ht="72.75">
+    <row r="185" spans="3:12" ht="72" x14ac:dyDescent="0.3">
       <c r="C185" s="62" t="s">
         <v>262</v>
       </c>
@@ -10625,7 +15087,7 @@
         <v>45659</v>
       </c>
     </row>
-    <row r="186" spans="3:12" ht="29.25">
+    <row r="186" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C186" s="62" t="s">
         <v>187</v>
       </c>
@@ -10645,7 +15107,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="187" spans="3:12" ht="29.25">
+    <row r="187" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C187" s="62" t="s">
         <v>262</v>
       </c>
@@ -10668,7 +15130,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="188" spans="3:12">
+    <row r="188" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C188" s="62" t="s">
         <v>262</v>
       </c>
@@ -10688,7 +15150,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="189" spans="3:12">
+    <row r="189" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C189" s="62" t="s">
         <v>262</v>
       </c>
@@ -10708,7 +15170,7 @@
         <v>45621</v>
       </c>
     </row>
-    <row r="190" spans="3:12">
+    <row r="190" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C190" s="62" t="s">
         <v>262</v>
       </c>
@@ -10728,7 +15190,7 @@
         <v>45621</v>
       </c>
     </row>
-    <row r="191" spans="3:12">
+    <row r="191" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C191" s="62" t="s">
         <v>369</v>
       </c>
@@ -10748,7 +15210,7 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="192" spans="3:12" ht="29.25">
+    <row r="192" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C192" s="62" t="s">
         <v>373</v>
       </c>
@@ -10771,7 +15233,7 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="193" spans="3:12" ht="29.25">
+    <row r="193" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C193" s="62" t="s">
         <v>373</v>
       </c>
@@ -10794,7 +15256,7 @@
         <v>43223</v>
       </c>
     </row>
-    <row r="194" spans="3:12" ht="29.25">
+    <row r="194" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C194" s="62" t="s">
         <v>262</v>
       </c>
@@ -10812,7 +15274,7 @@
       </c>
       <c r="J194" s="57"/>
     </row>
-    <row r="195" spans="3:12">
+    <row r="195" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C195" s="62" t="s">
         <v>80</v>
       </c>
@@ -10832,7 +15294,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="196" spans="3:12">
+    <row r="196" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C196" s="62" t="s">
         <v>80</v>
       </c>
@@ -10855,7 +15317,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="197" spans="3:12" ht="29.25">
+    <row r="197" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C197" s="62" t="s">
         <v>44</v>
       </c>
@@ -10878,7 +15340,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="198" spans="3:12" ht="29.25">
+    <row r="198" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C198" s="62" t="s">
         <v>44</v>
       </c>
@@ -10901,7 +15363,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="199" spans="3:12">
+    <row r="199" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C199" s="62" t="s">
         <v>44</v>
       </c>
@@ -10924,7 +15386,7 @@
         <v>45737</v>
       </c>
     </row>
-    <row r="200" spans="3:12">
+    <row r="200" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C200" s="62" t="s">
         <v>44</v>
       </c>
@@ -10944,7 +15406,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="201" spans="3:12">
+    <row r="201" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C201" s="62" t="s">
         <v>240</v>
       </c>
@@ -10964,7 +15426,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="202" spans="3:12">
+    <row r="202" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C202" s="62" t="s">
         <v>240</v>
       </c>
@@ -10984,7 +15446,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="203" spans="3:12">
+    <row r="203" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C203" s="62" t="s">
         <v>240</v>
       </c>
@@ -11004,7 +15466,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="204" spans="3:12">
+    <row r="204" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C204" s="62" t="s">
         <v>240</v>
       </c>
@@ -11024,7 +15486,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="205" spans="3:12">
+    <row r="205" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C205" s="62" t="s">
         <v>240</v>
       </c>
@@ -11044,7 +15506,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="206" spans="3:12">
+    <row r="206" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C206" s="62" t="s">
         <v>240</v>
       </c>
@@ -11064,7 +15526,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="207" spans="3:12">
+    <row r="207" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C207" s="62" t="s">
         <v>240</v>
       </c>
@@ -11084,7 +15546,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="208" spans="3:12">
+    <row r="208" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C208" s="62" t="s">
         <v>240</v>
       </c>
@@ -11107,7 +15569,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="209" spans="3:12" ht="29.25">
+    <row r="209" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C209" s="62" t="s">
         <v>44</v>
       </c>
@@ -11130,7 +15592,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="210" spans="3:12">
+    <row r="210" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C210" s="62" t="s">
         <v>262</v>
       </c>
@@ -11150,7 +15612,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="211" spans="3:12">
+    <row r="211" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C211" s="62" t="s">
         <v>373</v>
       </c>
@@ -11170,7 +15632,7 @@
         <v>45704</v>
       </c>
     </row>
-    <row r="212" spans="3:12">
+    <row r="212" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C212" s="62" t="s">
         <v>262</v>
       </c>
@@ -11190,7 +15652,7 @@
         <v>45704</v>
       </c>
     </row>
-    <row r="213" spans="3:12">
+    <row r="213" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C213" s="62" t="s">
         <v>262</v>
       </c>
@@ -11210,7 +15672,7 @@
         <v>45704</v>
       </c>
     </row>
-    <row r="214" spans="3:12">
+    <row r="214" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C214" s="62" t="s">
         <v>262</v>
       </c>
@@ -11382,61 +15844,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E8C14E-A35E-4E5A-BE68-02C3ED6999E3}">
   <dimension ref="A1:AK70"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="topRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="44.45" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="44.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="28.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="28.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="23" style="2" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="19.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="19.6640625" style="2" customWidth="1"/>
     <col min="11" max="12" width="27" style="2" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" style="2" customWidth="1"/>
-    <col min="14" max="15" width="22.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="25.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="2" customWidth="1"/>
+    <col min="14" max="15" width="22.5546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" style="2" customWidth="1"/>
     <col min="17" max="17" width="24" style="2" customWidth="1"/>
     <col min="18" max="18" width="20" style="2" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="36" width="8.85546875" style="2"/>
-    <col min="37" max="37" width="20.28515625" style="2" customWidth="1"/>
-    <col min="38" max="16384" width="8.85546875" style="2"/>
+    <col min="19" max="19" width="15.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="23.44140625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="36" width="8.88671875" style="2"/>
+    <col min="37" max="37" width="20.33203125" style="2" customWidth="1"/>
+    <col min="38" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="44.45" customHeight="1" thickBot="1">
+    <row r="1" spans="1:37" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AK1" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="44.45" customHeight="1" thickBot="1">
-      <c r="N2" s="76" t="s">
+    <row r="2" spans="1:37" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="81" t="s">
         <v>433</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="74" t="s">
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="79" t="s">
         <v>434</v>
       </c>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="75"/>
-    </row>
-    <row r="3" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="80"/>
+    </row>
+    <row r="3" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>435</v>
       </c>
@@ -11504,7 +15966,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="4" customFormat="1" ht="44.45" customHeight="1">
+    <row r="4" spans="1:37" s="4" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>455</v>
       </c>
@@ -11566,7 +16028,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="4" customFormat="1" ht="44.45" customHeight="1">
+    <row r="5" spans="1:37" s="4" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>455</v>
       </c>
@@ -11595,7 +16057,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="4" customFormat="1" ht="44.45" customHeight="1">
+    <row r="6" spans="1:37" s="4" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="43" t="s">
         <v>478</v>
       </c>
@@ -11606,7 +16068,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="4" customFormat="1" ht="44.45" customHeight="1">
+    <row r="7" spans="1:37" s="4" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="43" t="s">
         <v>481</v>
       </c>
@@ -11617,7 +16079,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="4" customFormat="1" ht="44.45" customHeight="1">
+    <row r="8" spans="1:37" s="4" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="43" t="s">
         <v>484</v>
       </c>
@@ -11628,7 +16090,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="4" customFormat="1" ht="44.45" customHeight="1">
+    <row r="9" spans="1:37" s="4" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="43" t="s">
         <v>487</v>
       </c>
@@ -11636,7 +16098,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="4" customFormat="1" ht="44.45" customHeight="1">
+    <row r="10" spans="1:37" s="4" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="43" t="s">
         <v>489</v>
       </c>
@@ -11644,7 +16106,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="4" customFormat="1" ht="44.45" customHeight="1">
+    <row r="11" spans="1:37" s="4" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="43" t="s">
         <v>491</v>
       </c>
@@ -11652,7 +16114,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="4" customFormat="1" ht="44.45" customHeight="1">
+    <row r="12" spans="1:37" s="4" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="43" t="s">
         <v>493</v>
       </c>
@@ -11660,7 +16122,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="4" customFormat="1" ht="44.45" customHeight="1">
+    <row r="13" spans="1:37" s="4" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="43" t="s">
         <v>495</v>
       </c>
@@ -11668,7 +16130,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="4" customFormat="1" ht="44.45" customHeight="1">
+    <row r="14" spans="1:37" s="4" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="43" t="s">
         <v>497</v>
       </c>
@@ -11676,7 +16138,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="4" customFormat="1" ht="44.45" customHeight="1">
+    <row r="15" spans="1:37" s="4" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="43" t="s">
         <v>499</v>
       </c>
@@ -11684,7 +16146,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="4" customFormat="1" ht="44.45" customHeight="1">
+    <row r="16" spans="1:37" s="4" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="43" t="s">
         <v>501</v>
       </c>
@@ -11692,7 +16154,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="4" customFormat="1" ht="44.45" customHeight="1">
+    <row r="17" spans="1:37" s="4" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="43" t="s">
         <v>503</v>
       </c>
@@ -11700,7 +16162,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="4" customFormat="1" ht="44.45" customHeight="1">
+    <row r="18" spans="1:37" s="4" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="43" t="s">
         <v>505</v>
       </c>
@@ -11708,7 +16170,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="4" customFormat="1" ht="44.45" customHeight="1">
+    <row r="19" spans="1:37" s="4" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="43" t="s">
         <v>507</v>
       </c>
@@ -11716,7 +16178,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="4" customFormat="1" ht="44.45" customHeight="1">
+    <row r="20" spans="1:37" s="4" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="43" t="s">
         <v>509</v>
       </c>
@@ -11724,7 +16186,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="4" customFormat="1" ht="44.45" customHeight="1">
+    <row r="21" spans="1:37" s="4" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="43" t="s">
         <v>511</v>
       </c>
@@ -11732,7 +16194,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="22" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="43" t="s">
@@ -11760,7 +16222,7 @@
       <c r="U22" s="4"/>
       <c r="AK22" s="4"/>
     </row>
-    <row r="23" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="23" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="43" t="s">
@@ -11788,7 +16250,7 @@
       <c r="U23" s="4"/>
       <c r="AK23" s="4"/>
     </row>
-    <row r="24" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="24" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="43" t="s">
@@ -11816,7 +16278,7 @@
       <c r="U24" s="4"/>
       <c r="AK24" s="4"/>
     </row>
-    <row r="25" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="25" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="43" t="s">
@@ -11844,7 +16306,7 @@
       <c r="U25" s="4"/>
       <c r="AK25" s="4"/>
     </row>
-    <row r="26" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="26" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="43" t="s">
@@ -11872,7 +16334,7 @@
       <c r="U26" s="4"/>
       <c r="AK26" s="4"/>
     </row>
-    <row r="27" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="27" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="43" t="s">
@@ -11900,7 +16362,7 @@
       <c r="U27" s="4"/>
       <c r="AK27" s="4"/>
     </row>
-    <row r="28" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="28" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="43" t="s">
@@ -11928,7 +16390,7 @@
       <c r="U28" s="4"/>
       <c r="AK28" s="4"/>
     </row>
-    <row r="29" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="29" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="43" t="s">
@@ -11956,7 +16418,7 @@
       <c r="U29" s="4"/>
       <c r="AK29" s="4"/>
     </row>
-    <row r="30" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="30" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="43" t="s">
@@ -11984,7 +16446,7 @@
       <c r="U30" s="4"/>
       <c r="AK30" s="4"/>
     </row>
-    <row r="31" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="31" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="43" t="s">
@@ -12012,7 +16474,7 @@
       <c r="U31" s="4"/>
       <c r="AK31" s="4"/>
     </row>
-    <row r="32" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="32" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="43" t="s">
@@ -12040,7 +16502,7 @@
       <c r="U32" s="4"/>
       <c r="AK32" s="4"/>
     </row>
-    <row r="33" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="33" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="43" t="s">
@@ -12068,7 +16530,7 @@
       <c r="U33" s="4"/>
       <c r="AK33" s="4"/>
     </row>
-    <row r="34" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="34" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="43" t="s">
@@ -12096,7 +16558,7 @@
       <c r="U34" s="4"/>
       <c r="AK34" s="4"/>
     </row>
-    <row r="35" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="35" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="43" t="s">
@@ -12124,7 +16586,7 @@
       <c r="U35" s="4"/>
       <c r="AK35" s="4"/>
     </row>
-    <row r="36" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="36" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="43" t="s">
@@ -12152,7 +16614,7 @@
       <c r="U36" s="4"/>
       <c r="AK36" s="4"/>
     </row>
-    <row r="37" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="37" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="43" t="s">
@@ -12180,7 +16642,7 @@
       <c r="U37" s="4"/>
       <c r="AK37" s="4"/>
     </row>
-    <row r="38" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="38" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="43" t="s">
@@ -12203,100 +16665,100 @@
       <c r="U38" s="4"/>
       <c r="AK38" s="4"/>
     </row>
-    <row r="39" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="39" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK39" s="4"/>
     </row>
-    <row r="40" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="40" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK40" s="4"/>
     </row>
-    <row r="41" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="41" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK41" s="4"/>
     </row>
-    <row r="42" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="42" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK42" s="4"/>
     </row>
-    <row r="43" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="43" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK43" s="4"/>
     </row>
-    <row r="44" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="44" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK44" s="4"/>
     </row>
-    <row r="45" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="45" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK45" s="4"/>
     </row>
-    <row r="46" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="46" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK46" s="4"/>
     </row>
-    <row r="47" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="47" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK47" s="4"/>
     </row>
-    <row r="48" spans="1:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="48" spans="1:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK48" s="4"/>
     </row>
-    <row r="49" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="49" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK49" s="4"/>
     </row>
-    <row r="50" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="50" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK50" s="4"/>
     </row>
-    <row r="51" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="51" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK51" s="4"/>
     </row>
-    <row r="52" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="52" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK52" s="4"/>
     </row>
-    <row r="53" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="53" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK53" s="4"/>
     </row>
-    <row r="54" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="54" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK54" s="4"/>
     </row>
-    <row r="55" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="55" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK55" s="4"/>
     </row>
-    <row r="56" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="56" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK56" s="4"/>
     </row>
-    <row r="57" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="57" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK57" s="4"/>
     </row>
-    <row r="58" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="58" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK58" s="4"/>
     </row>
-    <row r="59" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="59" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK59" s="4"/>
     </row>
-    <row r="60" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="60" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK60" s="4"/>
     </row>
-    <row r="61" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="61" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK61" s="4"/>
     </row>
-    <row r="62" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="62" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK62" s="4"/>
     </row>
-    <row r="63" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="63" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK63" s="4"/>
     </row>
-    <row r="64" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="64" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK64" s="4"/>
     </row>
-    <row r="65" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="65" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK65" s="4"/>
     </row>
-    <row r="66" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="66" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK66" s="4"/>
     </row>
-    <row r="67" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="67" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK67" s="4"/>
     </row>
-    <row r="68" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="68" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK68" s="4"/>
     </row>
-    <row r="69" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="69" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK69" s="4"/>
     </row>
-    <row r="70" spans="37:37" s="54" customFormat="1" ht="44.45" customHeight="1">
+    <row r="70" spans="37:37" s="54" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AK70" s="4"/>
     </row>
   </sheetData>
@@ -12320,7 +16782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5157D9CC-2BA8-4AAC-BCAF-81689FCBE8B9}">
   <dimension ref="A1:K123"/>
   <sheetViews>
@@ -12328,15 +16790,15 @@
       <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>546</v>
       </c>
@@ -12350,11 +16812,11 @@
         <v>549</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="79" t="s">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="84" t="s">
         <v>550</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="89" t="s">
         <v>456</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -12369,9 +16831,9 @@
       <c r="H2" s="14"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="80"/>
-      <c r="B3" s="83"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="85"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="25" t="s">
         <v>553</v>
       </c>
@@ -12384,9 +16846,9 @@
       <c r="H3" s="11"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="80"/>
-      <c r="B4" s="83"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="85"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="11" t="s">
         <v>555</v>
       </c>
@@ -12399,9 +16861,9 @@
       <c r="H4" s="11"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="80"/>
-      <c r="B5" s="83"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="85"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="11" t="s">
         <v>557</v>
       </c>
@@ -12414,9 +16876,9 @@
       <c r="H5" s="11"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="80"/>
-      <c r="B6" s="83"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="85"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="11" t="s">
         <v>559</v>
       </c>
@@ -12429,9 +16891,9 @@
       <c r="H6" s="11"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="80"/>
-      <c r="B7" s="83"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="85"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="11" t="s">
         <v>561</v>
       </c>
@@ -12444,9 +16906,9 @@
       <c r="H7" s="11"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="80"/>
-      <c r="B8" s="83"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="85"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="11" t="s">
         <v>562</v>
       </c>
@@ -12459,9 +16921,9 @@
       <c r="H8" s="11"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="80"/>
-      <c r="B9" s="83"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="85"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="25" t="s">
         <v>563</v>
       </c>
@@ -12475,9 +16937,9 @@
       <c r="I9" s="16"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="80"/>
-      <c r="B10" s="83"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="85"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="11" t="s">
         <v>564</v>
       </c>
@@ -12490,9 +16952,9 @@
       <c r="H10" s="11"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="80"/>
-      <c r="B11" s="83"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="85"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="11" t="s">
         <v>566</v>
       </c>
@@ -12505,9 +16967,9 @@
       <c r="H11" s="11"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="80"/>
-      <c r="B12" s="83"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="85"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="11" t="s">
         <v>568</v>
       </c>
@@ -12520,9 +16982,9 @@
       <c r="H12" s="11"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="80"/>
-      <c r="B13" s="83"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="85"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="11" t="s">
         <v>570</v>
       </c>
@@ -12535,9 +16997,9 @@
       <c r="H13" s="11"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="80"/>
-      <c r="B14" s="83"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="85"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="11" t="s">
         <v>571</v>
       </c>
@@ -12550,9 +17012,9 @@
       <c r="H14" s="11"/>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="80"/>
-      <c r="B15" s="83"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="85"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="11" t="s">
         <v>573</v>
       </c>
@@ -12565,9 +17027,9 @@
       <c r="H15" s="11"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="80"/>
-      <c r="B16" s="83"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="85"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="11" t="s">
         <v>575</v>
       </c>
@@ -12580,9 +17042,9 @@
       <c r="H16" s="11"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="80"/>
-      <c r="B17" s="83"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="85"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="25" t="s">
         <v>576</v>
       </c>
@@ -12595,9 +17057,9 @@
       <c r="H17" s="11"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="80"/>
-      <c r="B18" s="83"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="85"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="11" t="s">
         <v>578</v>
       </c>
@@ -12610,9 +17072,9 @@
       <c r="H18" s="11"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="80"/>
-      <c r="B19" s="83"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="85"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="11" t="s">
         <v>580</v>
       </c>
@@ -12625,9 +17087,9 @@
       <c r="H19" s="11"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="80"/>
-      <c r="B20" s="83"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="85"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="11" t="s">
         <v>581</v>
       </c>
@@ -12640,8 +17102,8 @@
       <c r="H20" s="11"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="80"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="85"/>
       <c r="B21" s="10" t="s">
         <v>582</v>
       </c>
@@ -12653,8 +17115,8 @@
       <c r="H21" s="11"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="80"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="85"/>
       <c r="B22" s="10" t="s">
         <v>583</v>
       </c>
@@ -12666,8 +17128,8 @@
       <c r="H22" s="11"/>
       <c r="I22" s="16"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="80"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="85"/>
       <c r="B23" s="10" t="s">
         <v>584</v>
       </c>
@@ -12679,8 +17141,8 @@
       <c r="H23" s="11"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="80"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="85"/>
       <c r="B24" s="10" t="s">
         <v>585</v>
       </c>
@@ -12692,8 +17154,8 @@
       <c r="H24" s="11"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="81"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="86"/>
       <c r="B25" s="20" t="s">
         <v>586</v>
       </c>
@@ -12705,8 +17167,8 @@
       <c r="H25" s="21"/>
       <c r="I25" s="22"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="79" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="84" t="s">
         <v>587</v>
       </c>
       <c r="B26" s="19" t="s">
@@ -12720,8 +17182,8 @@
       <c r="H26" s="14"/>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="80"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="85"/>
       <c r="B27" s="12" t="s">
         <v>584</v>
       </c>
@@ -12733,8 +17195,8 @@
       <c r="H27" s="11"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="80"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="85"/>
       <c r="B28" s="12" t="s">
         <v>585</v>
       </c>
@@ -12746,8 +17208,8 @@
       <c r="H28" s="11"/>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="81"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="86"/>
       <c r="B29" s="20" t="s">
         <v>586</v>
       </c>
@@ -12759,8 +17221,8 @@
       <c r="H29" s="21"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="79" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="84" t="s">
         <v>588</v>
       </c>
       <c r="B30" s="19"/>
@@ -12772,8 +17234,8 @@
       <c r="H30" s="14"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="80"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="85"/>
       <c r="B31" s="12" t="s">
         <v>589</v>
       </c>
@@ -12787,8 +17249,8 @@
       <c r="H31" s="11"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="81"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="86"/>
       <c r="B32" s="24" t="s">
         <v>584</v>
       </c>
@@ -12800,8 +17262,8 @@
       <c r="H32" s="21"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="79" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="84" t="s">
         <v>591</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -12815,8 +17277,8 @@
       <c r="H33" s="14"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="80"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="85"/>
       <c r="B34" s="10" t="s">
         <v>583</v>
       </c>
@@ -12828,8 +17290,8 @@
       <c r="H34" s="11"/>
       <c r="I34" s="16"/>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="80"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="85"/>
       <c r="B35" s="10" t="s">
         <v>584</v>
       </c>
@@ -12841,8 +17303,8 @@
       <c r="H35" s="11"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="80"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="85"/>
       <c r="B36" s="10" t="s">
         <v>589</v>
       </c>
@@ -12854,8 +17316,8 @@
       <c r="H36" s="11"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="80"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="85"/>
       <c r="B37" s="10" t="s">
         <v>585</v>
       </c>
@@ -12867,8 +17329,8 @@
       <c r="H37" s="11"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="81"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="86"/>
       <c r="B38" s="20" t="s">
         <v>586</v>
       </c>
@@ -12880,8 +17342,8 @@
       <c r="H38" s="21"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="79" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="84" t="s">
         <v>592</v>
       </c>
       <c r="B39" s="19" t="s">
@@ -12895,8 +17357,8 @@
       <c r="H39" s="14"/>
       <c r="I39" s="15"/>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="80"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="85"/>
       <c r="B40" s="12" t="s">
         <v>583</v>
       </c>
@@ -12908,8 +17370,8 @@
       <c r="H40" s="11"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="80"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="85"/>
       <c r="B41" s="12" t="s">
         <v>584</v>
       </c>
@@ -12921,8 +17383,8 @@
       <c r="H41" s="11"/>
       <c r="I41" s="16"/>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="80"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="85"/>
       <c r="B42" s="12" t="s">
         <v>589</v>
       </c>
@@ -12934,8 +17396,8 @@
       <c r="H42" s="11"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="80"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="85"/>
       <c r="B43" s="12" t="s">
         <v>585</v>
       </c>
@@ -12947,8 +17409,8 @@
       <c r="H43" s="11"/>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="80"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="85"/>
       <c r="B44" s="12" t="s">
         <v>594</v>
       </c>
@@ -12960,8 +17422,8 @@
       <c r="H44" s="11"/>
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="80"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="85"/>
       <c r="B45" s="12" t="s">
         <v>595</v>
       </c>
@@ -12973,8 +17435,8 @@
       <c r="H45" s="11"/>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="80"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="85"/>
       <c r="B46" s="12" t="s">
         <v>596</v>
       </c>
@@ -12986,8 +17448,8 @@
       <c r="H46" s="11"/>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="80"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="85"/>
       <c r="B47" s="12" t="s">
         <v>597</v>
       </c>
@@ -12999,9 +17461,9 @@
       <c r="H47" s="11"/>
       <c r="I47" s="16"/>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="80"/>
-      <c r="B48" s="85" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="85"/>
+      <c r="B48" s="90" t="s">
         <v>456</v>
       </c>
       <c r="C48" s="11"/>
@@ -13014,9 +17476,9 @@
       <c r="H48" s="11"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="80"/>
-      <c r="B49" s="85"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="85"/>
+      <c r="B49" s="90"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11" t="s">
         <v>598</v>
@@ -13027,9 +17489,9 @@
       <c r="H49" s="11"/>
       <c r="I49" s="16"/>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="80"/>
-      <c r="B50" s="85"/>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="85"/>
+      <c r="B50" s="90"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11" t="s">
         <v>599</v>
@@ -13040,9 +17502,9 @@
       <c r="H50" s="11"/>
       <c r="I50" s="16"/>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="80"/>
-      <c r="B51" s="85"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="85"/>
+      <c r="B51" s="90"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11" t="s">
         <v>600</v>
@@ -13053,9 +17515,9 @@
       <c r="H51" s="11"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="80"/>
-      <c r="B52" s="85"/>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="85"/>
+      <c r="B52" s="90"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
         <v>600</v>
@@ -13066,9 +17528,9 @@
       <c r="H52" s="11"/>
       <c r="I52" s="16"/>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="80"/>
-      <c r="B53" s="85"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="85"/>
+      <c r="B53" s="90"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11" t="s">
         <v>601</v>
@@ -13079,9 +17541,9 @@
       <c r="H53" s="11"/>
       <c r="I53" s="16"/>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="80"/>
-      <c r="B54" s="85"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="85"/>
+      <c r="B54" s="90"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
         <v>602</v>
@@ -13092,9 +17554,9 @@
       <c r="H54" s="11"/>
       <c r="I54" s="16"/>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="80"/>
-      <c r="B55" s="85"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="85"/>
+      <c r="B55" s="90"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11" t="s">
         <v>603</v>
@@ -13105,9 +17567,9 @@
       <c r="H55" s="11"/>
       <c r="I55" s="16"/>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="80"/>
-      <c r="B56" s="85"/>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="85"/>
+      <c r="B56" s="90"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11" t="s">
         <v>604</v>
@@ -13118,8 +17580,8 @@
       <c r="H56" s="11"/>
       <c r="I56" s="16"/>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="81"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="86"/>
       <c r="B57" s="20" t="s">
         <v>586</v>
       </c>
@@ -13131,8 +17593,8 @@
       <c r="H57" s="21"/>
       <c r="I57" s="22"/>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="79" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="84" t="s">
         <v>605</v>
       </c>
       <c r="B58" s="13" t="s">
@@ -13146,8 +17608,8 @@
       <c r="H58" s="14"/>
       <c r="I58" s="15"/>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="80"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="85"/>
       <c r="B59" s="10" t="s">
         <v>582</v>
       </c>
@@ -13159,9 +17621,9 @@
       <c r="H59" s="11"/>
       <c r="I59" s="16"/>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="80"/>
-      <c r="B60" s="86" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="85"/>
+      <c r="B60" s="91" t="s">
         <v>607</v>
       </c>
       <c r="C60" s="25" t="s">
@@ -13174,9 +17636,9 @@
       <c r="H60" s="11"/>
       <c r="I60" s="16"/>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="80"/>
-      <c r="B61" s="87"/>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="85"/>
+      <c r="B61" s="92"/>
       <c r="C61" s="25" t="s">
         <v>609</v>
       </c>
@@ -13187,8 +17649,8 @@
       <c r="H61" s="11"/>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="80"/>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="85"/>
       <c r="B62" s="10" t="s">
         <v>585</v>
       </c>
@@ -13200,8 +17662,8 @@
       <c r="H62" s="11"/>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="80"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="85"/>
       <c r="B63" s="10" t="s">
         <v>596</v>
       </c>
@@ -13213,8 +17675,8 @@
       <c r="H63" s="11"/>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="81"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="86"/>
       <c r="B64" s="24" t="s">
         <v>593</v>
       </c>
@@ -13226,8 +17688,8 @@
       <c r="H64" s="21"/>
       <c r="I64" s="22"/>
     </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="79" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="84" t="s">
         <v>610</v>
       </c>
       <c r="B65" s="13" t="s">
@@ -13241,8 +17703,8 @@
       <c r="H65" s="14"/>
       <c r="I65" s="15"/>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="80"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="85"/>
       <c r="B66" s="10" t="s">
         <v>585</v>
       </c>
@@ -13254,8 +17716,8 @@
       <c r="H66" s="11"/>
       <c r="I66" s="16"/>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="80"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="85"/>
       <c r="B67" s="10" t="s">
         <v>456</v>
       </c>
@@ -13269,9 +17731,9 @@
       <c r="H67" s="11"/>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="80"/>
-      <c r="B68" s="83" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="85"/>
+      <c r="B68" s="88" t="s">
         <v>611</v>
       </c>
       <c r="C68" s="11"/>
@@ -13284,9 +17746,9 @@
       <c r="H68" s="11"/>
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="80"/>
-      <c r="B69" s="83"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="85"/>
+      <c r="B69" s="88"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11" t="s">
         <v>612</v>
@@ -13297,9 +17759,9 @@
       <c r="H69" s="11"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="80"/>
-      <c r="B70" s="83"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="85"/>
+      <c r="B70" s="88"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11" t="s">
         <v>613</v>
@@ -13310,9 +17772,9 @@
       <c r="H70" s="11"/>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="80"/>
-      <c r="B71" s="83"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="85"/>
+      <c r="B71" s="88"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11" t="s">
         <v>604</v>
@@ -13323,9 +17785,9 @@
       <c r="H71" s="11"/>
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="80"/>
-      <c r="B72" s="83"/>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="85"/>
+      <c r="B72" s="88"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11" t="s">
         <v>614</v>
@@ -13336,9 +17798,9 @@
       <c r="H72" s="11"/>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="80"/>
-      <c r="B73" s="83"/>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="85"/>
+      <c r="B73" s="88"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11" t="s">
         <v>615</v>
@@ -13349,9 +17811,9 @@
       <c r="H73" s="11"/>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="80"/>
-      <c r="B74" s="83"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="85"/>
+      <c r="B74" s="88"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11" t="s">
         <v>556</v>
@@ -13362,9 +17824,9 @@
       <c r="H74" s="11"/>
       <c r="I74" s="16"/>
     </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="80"/>
-      <c r="B75" s="83"/>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="85"/>
+      <c r="B75" s="88"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11" t="s">
         <v>616</v>
@@ -13375,9 +17837,9 @@
       <c r="H75" s="11"/>
       <c r="I75" s="16"/>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="80"/>
-      <c r="B76" s="83"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="85"/>
+      <c r="B76" s="88"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11" t="s">
         <v>617</v>
@@ -13388,9 +17850,9 @@
       <c r="H76" s="11"/>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="80"/>
-      <c r="B77" s="83"/>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="85"/>
+      <c r="B77" s="88"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11" t="s">
         <v>579</v>
@@ -13401,9 +17863,9 @@
       <c r="H77" s="11"/>
       <c r="I77" s="16"/>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="80"/>
-      <c r="B78" s="83" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="85"/>
+      <c r="B78" s="88" t="s">
         <v>618</v>
       </c>
       <c r="C78" s="11"/>
@@ -13416,9 +17878,9 @@
       <c r="H78" s="11"/>
       <c r="I78" s="16"/>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="80"/>
-      <c r="B79" s="83"/>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="85"/>
+      <c r="B79" s="88"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11" t="s">
         <v>612</v>
@@ -13429,9 +17891,9 @@
       <c r="H79" s="11"/>
       <c r="I79" s="16"/>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="80"/>
-      <c r="B80" s="83"/>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="85"/>
+      <c r="B80" s="88"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11" t="s">
         <v>613</v>
@@ -13442,9 +17904,9 @@
       <c r="H80" s="11"/>
       <c r="I80" s="16"/>
     </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="80"/>
-      <c r="B81" s="83"/>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="85"/>
+      <c r="B81" s="88"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11" t="s">
         <v>604</v>
@@ -13455,9 +17917,9 @@
       <c r="H81" s="11"/>
       <c r="I81" s="16"/>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="80"/>
-      <c r="B82" s="83"/>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="85"/>
+      <c r="B82" s="88"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11" t="s">
         <v>614</v>
@@ -13468,9 +17930,9 @@
       <c r="H82" s="11"/>
       <c r="I82" s="16"/>
     </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="80"/>
-      <c r="B83" s="83"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="85"/>
+      <c r="B83" s="88"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11" t="s">
         <v>615</v>
@@ -13481,9 +17943,9 @@
       <c r="H83" s="11"/>
       <c r="I83" s="16"/>
     </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="80"/>
-      <c r="B84" s="83"/>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="85"/>
+      <c r="B84" s="88"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11" t="s">
         <v>556</v>
@@ -13494,9 +17956,9 @@
       <c r="H84" s="11"/>
       <c r="I84" s="16"/>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="80"/>
-      <c r="B85" s="83"/>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="85"/>
+      <c r="B85" s="88"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11" t="s">
         <v>616</v>
@@ -13507,9 +17969,9 @@
       <c r="H85" s="11"/>
       <c r="I85" s="16"/>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="80"/>
-      <c r="B86" s="83"/>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="85"/>
+      <c r="B86" s="88"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11" t="s">
         <v>617</v>
@@ -13520,9 +17982,9 @@
       <c r="H86" s="11"/>
       <c r="I86" s="16"/>
     </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="80"/>
-      <c r="B87" s="83"/>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="85"/>
+      <c r="B87" s="88"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11" t="s">
         <v>579</v>
@@ -13533,9 +17995,9 @@
       <c r="H87" s="11"/>
       <c r="I87" s="16"/>
     </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="80"/>
-      <c r="B88" s="83" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="85"/>
+      <c r="B88" s="88" t="s">
         <v>619</v>
       </c>
       <c r="C88" s="11"/>
@@ -13548,9 +18010,9 @@
       <c r="H88" s="11"/>
       <c r="I88" s="16"/>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="80"/>
-      <c r="B89" s="83"/>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="85"/>
+      <c r="B89" s="88"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11" t="s">
         <v>612</v>
@@ -13561,9 +18023,9 @@
       <c r="H89" s="11"/>
       <c r="I89" s="16"/>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="80"/>
-      <c r="B90" s="83"/>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="85"/>
+      <c r="B90" s="88"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11" t="s">
         <v>613</v>
@@ -13574,9 +18036,9 @@
       <c r="H90" s="11"/>
       <c r="I90" s="16"/>
     </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="80"/>
-      <c r="B91" s="83"/>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="85"/>
+      <c r="B91" s="88"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11" t="s">
         <v>604</v>
@@ -13587,9 +18049,9 @@
       <c r="H91" s="11"/>
       <c r="I91" s="16"/>
     </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="80"/>
-      <c r="B92" s="83"/>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="85"/>
+      <c r="B92" s="88"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11" t="s">
         <v>614</v>
@@ -13600,9 +18062,9 @@
       <c r="H92" s="11"/>
       <c r="I92" s="16"/>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="80"/>
-      <c r="B93" s="83"/>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="85"/>
+      <c r="B93" s="88"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11" t="s">
         <v>615</v>
@@ -13613,9 +18075,9 @@
       <c r="H93" s="11"/>
       <c r="I93" s="16"/>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="80"/>
-      <c r="B94" s="83"/>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="85"/>
+      <c r="B94" s="88"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11" t="s">
         <v>556</v>
@@ -13626,9 +18088,9 @@
       <c r="H94" s="11"/>
       <c r="I94" s="16"/>
     </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="80"/>
-      <c r="B95" s="83"/>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="85"/>
+      <c r="B95" s="88"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11" t="s">
         <v>616</v>
@@ -13639,9 +18101,9 @@
       <c r="H95" s="11"/>
       <c r="I95" s="16"/>
     </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="80"/>
-      <c r="B96" s="83"/>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="85"/>
+      <c r="B96" s="88"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11" t="s">
         <v>617</v>
@@ -13652,9 +18114,9 @@
       <c r="H96" s="11"/>
       <c r="I96" s="16"/>
     </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="80"/>
-      <c r="B97" s="83"/>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="85"/>
+      <c r="B97" s="88"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11" t="s">
         <v>579</v>
@@ -13665,8 +18127,8 @@
       <c r="H97" s="11"/>
       <c r="I97" s="16"/>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="80"/>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="85"/>
       <c r="B98" s="10" t="s">
         <v>620</v>
       </c>
@@ -13678,8 +18140,8 @@
       <c r="H98" s="11"/>
       <c r="I98" s="16"/>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="80"/>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="85"/>
       <c r="B99" s="10" t="s">
         <v>582</v>
       </c>
@@ -13693,8 +18155,8 @@
       <c r="H99" s="11"/>
       <c r="I99" s="16"/>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="80"/>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="85"/>
       <c r="B100" s="10" t="s">
         <v>622</v>
       </c>
@@ -13706,8 +18168,8 @@
       <c r="H100" s="11"/>
       <c r="I100" s="16"/>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="81"/>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="86"/>
       <c r="B101" s="24" t="s">
         <v>623</v>
       </c>
@@ -13719,8 +18181,8 @@
       <c r="H101" s="21"/>
       <c r="I101" s="22"/>
     </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="79" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="84" t="s">
         <v>624</v>
       </c>
       <c r="B102" s="13" t="s">
@@ -13734,9 +18196,9 @@
       <c r="H102" s="14"/>
       <c r="I102" s="15"/>
     </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="80"/>
-      <c r="B103" s="83" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="85"/>
+      <c r="B103" s="88" t="s">
         <v>456</v>
       </c>
       <c r="C103" s="11"/>
@@ -13749,9 +18211,9 @@
       <c r="H103" s="11"/>
       <c r="I103" s="16"/>
     </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="80"/>
-      <c r="B104" s="83"/>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="85"/>
+      <c r="B104" s="88"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11" t="s">
         <v>626</v>
@@ -13762,9 +18224,9 @@
       <c r="H104" s="11"/>
       <c r="I104" s="16"/>
     </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="80"/>
-      <c r="B105" s="83"/>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="85"/>
+      <c r="B105" s="88"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11" t="s">
         <v>627</v>
@@ -13775,9 +18237,9 @@
       <c r="H105" s="11"/>
       <c r="I105" s="16"/>
     </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="80"/>
-      <c r="B106" s="83"/>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="85"/>
+      <c r="B106" s="88"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11" t="s">
         <v>628</v>
@@ -13788,9 +18250,9 @@
       <c r="H106" s="11"/>
       <c r="I106" s="16"/>
     </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="80"/>
-      <c r="B107" s="83"/>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="85"/>
+      <c r="B107" s="88"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11" t="s">
         <v>579</v>
@@ -13801,9 +18263,9 @@
       <c r="H107" s="11"/>
       <c r="I107" s="16"/>
     </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="80"/>
-      <c r="B108" s="83"/>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="85"/>
+      <c r="B108" s="88"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11" t="s">
         <v>629</v>
@@ -13814,9 +18276,9 @@
       <c r="H108" s="11"/>
       <c r="I108" s="16"/>
     </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="80"/>
-      <c r="B109" s="83"/>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="85"/>
+      <c r="B109" s="88"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11" t="s">
         <v>630</v>
@@ -13827,9 +18289,9 @@
       <c r="H109" s="11"/>
       <c r="I109" s="16"/>
     </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="80"/>
-      <c r="B110" s="83"/>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="85"/>
+      <c r="B110" s="88"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11" t="s">
         <v>631</v>
@@ -13840,9 +18302,9 @@
       <c r="H110" s="11"/>
       <c r="I110" s="16"/>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="80"/>
-      <c r="B111" s="83"/>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="85"/>
+      <c r="B111" s="88"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11" t="s">
         <v>579</v>
@@ -13853,9 +18315,9 @@
       <c r="H111" s="11"/>
       <c r="I111" s="16"/>
     </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="80"/>
-      <c r="B112" s="83"/>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="85"/>
+      <c r="B112" s="88"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11" t="s">
         <v>632</v>
@@ -13866,9 +18328,9 @@
       <c r="H112" s="11"/>
       <c r="I112" s="16"/>
     </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="80"/>
-      <c r="B113" s="83"/>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="85"/>
+      <c r="B113" s="88"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11" t="s">
         <v>633</v>
@@ -13879,9 +18341,9 @@
       <c r="H113" s="11"/>
       <c r="I113" s="16"/>
     </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="80"/>
-      <c r="B114" s="83"/>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="85"/>
+      <c r="B114" s="88"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11" t="s">
         <v>634</v>
@@ -13892,9 +18354,9 @@
       <c r="H114" s="11"/>
       <c r="I114" s="16"/>
     </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="80"/>
-      <c r="B115" s="83"/>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="85"/>
+      <c r="B115" s="88"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11" t="s">
         <v>577</v>
@@ -13905,9 +18367,9 @@
       <c r="H115" s="11"/>
       <c r="I115" s="16"/>
     </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="80"/>
-      <c r="B116" s="83"/>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="85"/>
+      <c r="B116" s="88"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11" t="s">
         <v>613</v>
@@ -13918,9 +18380,9 @@
       <c r="H116" s="11"/>
       <c r="I116" s="16"/>
     </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="80"/>
-      <c r="B117" s="83"/>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="85"/>
+      <c r="B117" s="88"/>
       <c r="C117" s="25" t="s">
         <v>635</v>
       </c>
@@ -13933,9 +18395,9 @@
       <c r="H117" s="11"/>
       <c r="I117" s="16"/>
     </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="80"/>
-      <c r="B118" s="83"/>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="85"/>
+      <c r="B118" s="88"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11" t="s">
         <v>565</v>
@@ -13946,9 +18408,9 @@
       <c r="H118" s="11"/>
       <c r="I118" s="16"/>
     </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="80"/>
-      <c r="B119" s="83"/>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="85"/>
+      <c r="B119" s="88"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11" t="s">
         <v>625</v>
@@ -13959,8 +18421,8 @@
       <c r="H119" s="11"/>
       <c r="I119" s="16"/>
     </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="81"/>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="86"/>
       <c r="B120" s="24" t="s">
         <v>589</v>
       </c>
@@ -13974,8 +18436,8 @@
       <c r="H120" s="21"/>
       <c r="I120" s="22"/>
     </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="82"/>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="87"/>
       <c r="B121" s="23" t="s">
         <v>583</v>
       </c>
@@ -13987,7 +18449,7 @@
       <c r="H121" s="17"/>
       <c r="I121" s="18"/>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C123" s="27" t="s">
         <v>637</v>
       </c>
@@ -14236,13 +18698,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B6501EB-D5EF-4807-B43F-788D99CD4CB9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B6501EB-D5EF-4807-B43F-788D99CD4CB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="88027445-76da-44bf-a4c2-6252df5ee7fe"/>
+    <ds:schemaRef ds:uri="82ab75e9-d7a8-4db3-88c5-1da7af4e5988"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9C22674-60A2-44DF-8484-1CD6F6806222}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9C22674-60A2-44DF-8484-1CD6F6806222}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A315B1E-4BCE-4E6E-A268-516521DFC044}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A315B1E-4BCE-4E6E-A268-516521DFC044}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="88027445-76da-44bf-a4c2-6252df5ee7fe"/>
+    <ds:schemaRef ds:uri="82ab75e9-d7a8-4db3-88c5-1da7af4e5988"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{b530ee07-aa2b-47c7-bd4c-7cc545b5d455}" enabled="1" method="Standard" siteId="{3667e201-cbdc-48b3-9b42-5d2d3f16e2a9}" removed="0"/>
+</clbl:labelList>
 </file>